--- a/elementalSword/board/Tables.xlsx
+++ b/elementalSword/board/Tables.xlsx
@@ -5,12 +5,14 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samir\Documents\GitHub\Python-Scripts\elementalSword\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samir.farooq\Documents\GitHub\Python-Scripts\elementalSword\board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B79DC3E5-6110-40A5-B4D2-80E0A8F8AD65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A369109-4273-4C68-AF0F-EB2A940D9948}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16838" yWindow="4448" windowWidth="20531" windowHeight="10793" activeTab="6" xr2:uid="{DC4BCEDC-BB47-47B4-822F-D357A9FBC158}"/>
+    <workbookView minimized="1" xWindow="3276" yWindow="3396" windowWidth="13836" windowHeight="7176" firstSheet="3" activeTab="6" xr2:uid="{DC4BCEDC-BB47-47B4-822F-D357A9FBC158}"/>
+    <workbookView visibility="hidden" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="6" xr2:uid="{BE33DB70-26DA-4DA6-B32B-E004C93227E9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="8" xr2:uid="{172ED6DA-A762-4758-8CA4-3B66C15DE9E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Encounters" sheetId="8" r:id="rId1"/>
@@ -21,8 +23,10 @@
     <sheet name="Training" sheetId="5" r:id="rId6"/>
     <sheet name="Market" sheetId="7" r:id="rId7"/>
     <sheet name="City Benefits" sheetId="4" r:id="rId8"/>
+    <sheet name="Techniques" sheetId="13" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="474">
   <si>
     <t>Mission</t>
   </si>
@@ -1272,6 +1276,228 @@
   </si>
   <si>
     <t>Battle Zones</t>
+  </si>
+  <si>
+    <t>Lv 1</t>
+  </si>
+  <si>
+    <t>Lv 2</t>
+  </si>
+  <si>
+    <t>Lv 3</t>
+  </si>
+  <si>
+    <t>Lv 4</t>
+  </si>
+  <si>
+    <t>Lv 5</t>
+  </si>
+  <si>
+    <t>Lv 6</t>
+  </si>
+  <si>
+    <t>Lv 7</t>
+  </si>
+  <si>
+    <t>Lv 8</t>
+  </si>
+  <si>
+    <t>Lv 9</t>
+  </si>
+  <si>
+    <t>Lv 11</t>
+  </si>
+  <si>
+    <t>Double - Re-roll your attack and choose best outcome.</t>
+  </si>
+  <si>
+    <t>Foul Play - If opponent dodges your attack, their stability is reduced by 2.</t>
+  </si>
+  <si>
+    <t>Reflex - If you dodge an attack, increase agility by 2.</t>
+  </si>
+  <si>
+    <t>Power play - If your attack is successful, consume 1 cunning and add 3 damage.</t>
+  </si>
+  <si>
+    <t>Govern - If you take hit point damage, consume 1 cunning and your next successful attack is doubled on shield.</t>
+  </si>
+  <si>
+    <t>Foot Trap - Skip your dodge, opponent must skip next 2 dodges.</t>
+  </si>
+  <si>
+    <t>Slash - If you do hit point damage, opponent suffers 1 hit point damage whenever they dodge.</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>Cut - If you do shield damage, ignore shield for next successful attack.</t>
+  </si>
+  <si>
+    <t>Quiet - If you do 0 attack (excluding negation), add 1 to your agility (attack order is adjusted).</t>
+  </si>
+  <si>
+    <t>Shield Up - If you take hit point damage, recover 1 shield.</t>
+  </si>
+  <si>
+    <t>Quick Strike - If you dodge and your shield is broken, do attack equal to stability + 1.</t>
+  </si>
+  <si>
+    <t>Outplay - If your opponent deals damage, negate the attack and increase cunning by 1.</t>
+  </si>
+  <si>
+    <t>Quick Feet - If you fail to dodge, either role again or halve upcoming attack.</t>
+  </si>
+  <si>
+    <t>Smash - If opponent has 1-3 shield remaining, break shield and deal 2 damage (instead of regular attack).</t>
+  </si>
+  <si>
+    <t>Garrison - If opponent breaks shield, skip next attack and increase shield by 3.</t>
+  </si>
+  <si>
+    <t>Spin Move - If you use cunning to negate opponent's attack, deal damage to opponent by half of negated attack.</t>
+  </si>
+  <si>
+    <t>Invisible - Use prior to defense or offense phase, opponent cannot negate this turn (including this).</t>
+  </si>
+  <si>
+    <t>Summon Puppet - If opponent negates attack, attack again.</t>
+  </si>
+  <si>
+    <t>Summon Illusion - If opponent does shield damage, negate it and opponent takes 1 shield damage.</t>
+  </si>
+  <si>
+    <t>Vulnerable - If opponent takes shield damage, do hit point damage to opponent equal to your shield, and break your shield.</t>
+  </si>
+  <si>
+    <t>Return - If opponent does hit point damage, opponent takes half that damage (rounded up).</t>
+  </si>
+  <si>
+    <t>Sacrifice - Do 2 hit point damage to self, inflict 3 hit point damage to opponent (replaces attack phase).</t>
+  </si>
+  <si>
+    <t>Mark - At start of dodge step, skip dodge and attack negation, next attack power is doubled and cannot be negated.</t>
+  </si>
+  <si>
+    <t>Style</t>
+  </si>
+  <si>
+    <t>Physical</t>
+  </si>
+  <si>
+    <t>Breaker - If your shield breaks, next attack ignores shield.</t>
+  </si>
+  <si>
+    <t>Summon Duplicate - Agility is doubled this round and dodge cannot be negated.</t>
+  </si>
+  <si>
+    <t>Summon Chaos - If you have no shield, take damage equal to twice your stability, opponent suffers same damage (replaces attack)</t>
+  </si>
+  <si>
+    <t>Shutter - If opponent uses cunning and stability&gt;1, reduce your stability by 1, reduce their cunning by 2.</t>
+  </si>
+  <si>
+    <t>Frost - If you take shield damage, next opponent attack is halved.</t>
+  </si>
+  <si>
+    <t>Freeze - If you take hit point damage, opponent skips next attack phase.</t>
+  </si>
+  <si>
+    <t>Ice Storm - Opponent takes damage equal to half of their agility (rounded up).</t>
+  </si>
+  <si>
+    <t>Corruption - If you do shield damage, next attack breaks shield (cannot be negated).</t>
+  </si>
+  <si>
+    <t>Water Blast - If opponent attempts dodge, reduce their agility by 1.</t>
+  </si>
+  <si>
+    <t>Air Blast - If opponent attempts attack, reduce their stability by 1.</t>
+  </si>
+  <si>
+    <t>Earth Blast - If opponent attacks successfully, do 3 damage to opponent's shield.</t>
+  </si>
+  <si>
+    <t>Fire Blast - If opponent attacks your shield successfully, do 2 damage to opponent's hit points.</t>
+  </si>
+  <si>
+    <t>Pay Up - If you attack opponent's HP successfully with 2+ damage, take 1 coin.</t>
+  </si>
+  <si>
+    <t>Money Maker - If you defeat your opponent, take coins equal to half of your final attack (rounded up).</t>
+  </si>
+  <si>
+    <t>Reciprocate - If opponent breaks your shield, any remaining damage is inflicted on opponent.</t>
+  </si>
+  <si>
+    <t>Money Blast - Pay 2 coins, your next attack damage increases by 3 (stability is ignored).</t>
+  </si>
+  <si>
+    <t>Make it Rain - Pay coins equal to opponents shield, reduce your stability by 1, their shield is broken (replaces your attack).</t>
+  </si>
+  <si>
+    <t>Deep Breath - Recover 2 stability instead of attacking (cannot go beyond original level).</t>
+  </si>
+  <si>
+    <t>Quick Shot - If opponent attacks (even if negated), do 1 damage to opponent.</t>
+  </si>
+  <si>
+    <t>Sniper - Do attack equal to 13 minus opponent's agility (instead of attack; apply stability normally). Skip your next dodge phase.</t>
+  </si>
+  <si>
+    <t>Rapid Fire - Decrease stability by 2 (must have 2+ stability to use), add 3 to your next attack and ignore stability.</t>
+  </si>
+  <si>
+    <t>Sonic Wave - When opponent attempts to attack your HP, their stability is reduced by 1.</t>
+  </si>
+  <si>
+    <t>Sonic Blast - When your opponent attempts to attack your shield, their cunning is reduced by 2.</t>
+  </si>
+  <si>
+    <t>Sonic Screech - When your opponent attempts to dodge, and their agility is greater than yours, their agility is reduced by 2.</t>
+  </si>
+  <si>
+    <t>Sonic Boom - Your attack ignores opponent's shield but the attack is halved rounded down (max=5; use before rolling attack).</t>
+  </si>
+  <si>
+    <t>Stun Shot - After you make a successful attack, opponent's next 2 dodges are ignored.</t>
+  </si>
+  <si>
+    <t>Piercing Shot - If you successfully damage opponent's shield with 2+ damage, opponent takes 1 HP damage.</t>
+  </si>
+  <si>
+    <t>Paralysis - If opponent does hit point damage, they cannot attack next 2 turns.</t>
+  </si>
+  <si>
+    <t>Burst Shot - If you attack successfully, next attack cannot be negated (unless using a technique).</t>
+  </si>
+  <si>
+    <t>Reload - Skip your attack phase, on your next attack, roll as many times as you have techinque remaining (choose best outcome).</t>
+  </si>
+  <si>
+    <t>Blinding Light - If opponent attempts to dodge, negate that dodge then your attack cannot be negated (this can only be negated with 2 cunning).</t>
+  </si>
+  <si>
+    <t>Counter Strike - If an attack would kill you, negate it, and inflict the same amount of damage to opponent (can only be negated with 2 cunning).</t>
+  </si>
+  <si>
+    <t>Mirage Strike - If opponent negates your attack, negate the negation and subtract attack by 2 (cannot be negated).</t>
+  </si>
+  <si>
+    <t>Chaos Blast - Replacing your attack, shields are broken and everyone takes damage equal to half their original HP (rounded up; this can only be negated with 2 cunning).</t>
+  </si>
+  <si>
+    <t>Cannon - On your attack, if opponent has shield, break it, then continue with your attack (can only be negated with 2 cunning).</t>
+  </si>
+  <si>
+    <t>Shadow of Eyes - If opponent dodges successfully, inflict damage to your opponent equal to your stability (cannot be negated).</t>
+  </si>
+  <si>
+    <t>Mind Confusion - Subtract 1 to opponent's cunning, switch your remaining cunning with opponent's (can only be negated with 2 cunning).</t>
+  </si>
+  <si>
+    <t>Shock and Awe - If you break your opponent's shield, he cannot dodge the next 2 attacks - but subtract 3 to your attack.</t>
   </si>
 </sst>
 </file>
@@ -1618,62 +1844,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="13" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1777,6 +1952,57 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2097,18 +2323,20 @@
     <sheetView workbookViewId="0">
       <selection sqref="A1:F17"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>182</v>
       </c>
@@ -2128,14 +2356,14 @@
         <v>189</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>183</v>
       </c>
       <c r="B2" t="s">
         <v>188</v>
       </c>
-      <c r="C2" s="74" t="s">
+      <c r="C2" s="58" t="s">
         <v>184</v>
       </c>
       <c r="D2" t="s">
@@ -2148,7 +2376,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>81</v>
       </c>
@@ -2168,8 +2396,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="101" t="s">
         <v>194</v>
       </c>
       <c r="B4" t="s">
@@ -2188,8 +2416,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="101"/>
       <c r="B5" s="17" t="s">
         <v>196</v>
       </c>
@@ -2206,8 +2434,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="75"/>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="101"/>
       <c r="B6" t="s">
         <v>198</v>
       </c>
@@ -2224,8 +2452,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="75"/>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="101"/>
       <c r="B7" s="17" t="s">
         <v>198</v>
       </c>
@@ -2242,7 +2470,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>206</v>
       </c>
@@ -2262,7 +2490,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
         <v>211</v>
       </c>
@@ -2282,7 +2510,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>217</v>
       </c>
@@ -2302,7 +2530,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
         <v>218</v>
       </c>
@@ -2322,7 +2550,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>219</v>
       </c>
@@ -2342,7 +2570,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
         <v>228</v>
       </c>
@@ -2362,7 +2590,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>234</v>
       </c>
@@ -2372,7 +2600,7 @@
       <c r="C14" t="s">
         <v>236</v>
       </c>
-      <c r="D14" s="76">
+      <c r="D14" s="59">
         <v>8.3333333333333301E-2</v>
       </c>
       <c r="E14" t="s">
@@ -2382,7 +2610,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
         <v>41</v>
       </c>
@@ -2402,7 +2630,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>40</v>
       </c>
@@ -2412,7 +2640,7 @@
       <c r="C16" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="78" t="s">
+      <c r="D16" s="61" t="s">
         <v>24</v>
       </c>
       <c r="E16" s="7" t="s">
@@ -2422,8 +2650,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="77" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="60" t="s">
         <v>238</v>
       </c>
     </row>
@@ -2443,33 +2671,35 @@
     <sheetView workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="54" t="s">
+      <c r="C1" s="103"/>
+      <c r="D1" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="56" t="s">
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="56"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I1" s="104"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -2501,7 +2731,7 @@
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="34" t="s">
         <v>3</v>
       </c>
@@ -2530,7 +2760,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -2559,7 +2789,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="34" t="s">
         <v>10</v>
       </c>
@@ -2588,7 +2818,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -2617,7 +2847,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="34" t="s">
         <v>12</v>
       </c>
@@ -2646,7 +2876,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -2675,7 +2905,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="34" t="s">
         <v>14</v>
       </c>
@@ -2704,7 +2934,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -2733,7 +2963,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="34" t="s">
         <v>16</v>
       </c>
@@ -2762,7 +2992,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
@@ -2791,7 +3021,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="34" t="s">
         <v>18</v>
       </c>
@@ -2820,7 +3050,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
@@ -2849,7 +3079,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="34" t="s">
         <v>20</v>
       </c>
@@ -2878,7 +3108,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
@@ -2907,7 +3137,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>32</v>
       </c>
@@ -2924,7 +3154,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>103</v>
       </c>
@@ -2961,21 +3191,23 @@
     <sheetView workbookViewId="0">
       <selection activeCell="G41" sqref="A1:G41"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" customWidth="1"/>
-    <col min="6" max="6" width="33.140625" customWidth="1"/>
-    <col min="7" max="7" width="75.5703125" customWidth="1"/>
-    <col min="8" max="8" width="24.5703125" customWidth="1"/>
-    <col min="9" max="9" width="20.140625" customWidth="1"/>
+    <col min="1" max="1" width="3.88671875" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" customWidth="1"/>
+    <col min="6" max="6" width="33.109375" customWidth="1"/>
+    <col min="7" max="7" width="75.5546875" customWidth="1"/>
+    <col min="8" max="8" width="24.5546875" customWidth="1"/>
+    <col min="9" max="9" width="20.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
@@ -2998,843 +3230,843 @@
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="67">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="105">
         <v>1</v>
       </c>
-      <c r="B2" s="70">
+      <c r="B2" s="54">
         <v>1</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="54" t="s">
         <v>151</v>
       </c>
-      <c r="D2" s="88" t="s">
+      <c r="D2" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="70" t="s">
+      <c r="E2" s="54" t="s">
         <v>245</v>
       </c>
-      <c r="F2" s="81" t="s">
+      <c r="F2" s="64" t="s">
         <v>160</v>
       </c>
-      <c r="G2" s="81" t="s">
+      <c r="G2" s="64" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="68"/>
-      <c r="B3" s="89">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="106"/>
+      <c r="B3" s="72">
         <v>2</v>
       </c>
-      <c r="C3" s="89" t="s">
+      <c r="C3" s="72" t="s">
         <v>152</v>
       </c>
-      <c r="D3" s="90" t="s">
+      <c r="D3" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="89" t="s">
+      <c r="E3" s="72" t="s">
         <v>245</v>
       </c>
-      <c r="F3" s="85" t="s">
+      <c r="F3" s="68" t="s">
         <v>340</v>
       </c>
-      <c r="G3" s="85" t="s">
+      <c r="G3" s="68" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="68"/>
-      <c r="B4" s="71">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="106"/>
+      <c r="B4" s="55">
         <v>3</v>
       </c>
-      <c r="C4" s="71" t="s">
+      <c r="C4" s="55" t="s">
         <v>153</v>
       </c>
-      <c r="D4" s="91" t="s">
+      <c r="D4" s="74" t="s">
         <v>252</v>
       </c>
-      <c r="E4" s="71" t="s">
+      <c r="E4" s="55" t="s">
         <v>246</v>
       </c>
-      <c r="F4" s="83" t="s">
+      <c r="F4" s="66" t="s">
         <v>254</v>
       </c>
-      <c r="G4" s="82" t="s">
+      <c r="G4" s="65" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="68"/>
-      <c r="B5" s="89">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="106"/>
+      <c r="B5" s="72">
         <v>4</v>
       </c>
-      <c r="C5" s="89" t="s">
+      <c r="C5" s="72" t="s">
         <v>154</v>
       </c>
-      <c r="D5" s="90" t="s">
+      <c r="D5" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="89" t="s">
+      <c r="E5" s="72" t="s">
         <v>245</v>
       </c>
-      <c r="F5" s="85" t="s">
+      <c r="F5" s="68" t="s">
         <v>241</v>
       </c>
-      <c r="G5" s="85" t="s">
+      <c r="G5" s="68" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="68"/>
-      <c r="B6" s="71">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="106"/>
+      <c r="B6" s="55">
         <v>5</v>
       </c>
-      <c r="C6" s="71" t="s">
+      <c r="C6" s="55" t="s">
         <v>155</v>
       </c>
-      <c r="D6" s="92" t="s">
+      <c r="D6" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="71" t="s">
+      <c r="E6" s="55" t="s">
         <v>245</v>
       </c>
-      <c r="F6" s="83" t="s">
+      <c r="F6" s="66" t="s">
         <v>163</v>
       </c>
-      <c r="G6" s="83" t="s">
+      <c r="G6" s="66" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="68"/>
-      <c r="B7" s="89">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="106"/>
+      <c r="B7" s="72">
         <v>6</v>
       </c>
-      <c r="C7" s="89" t="s">
+      <c r="C7" s="72" t="s">
         <v>161</v>
       </c>
-      <c r="D7" s="90" t="s">
+      <c r="D7" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="89" t="s">
+      <c r="E7" s="72" t="s">
         <v>245</v>
       </c>
-      <c r="F7" s="85" t="s">
+      <c r="F7" s="68" t="s">
         <v>149</v>
       </c>
-      <c r="G7" s="85" t="s">
+      <c r="G7" s="68" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="68"/>
-      <c r="B8" s="71">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="106"/>
+      <c r="B8" s="55">
         <v>7</v>
       </c>
-      <c r="C8" s="72" t="s">
+      <c r="C8" s="56" t="s">
         <v>361</v>
       </c>
-      <c r="D8" s="91" t="s">
+      <c r="D8" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="72" t="s">
+      <c r="E8" s="56" t="s">
         <v>245</v>
       </c>
-      <c r="F8" s="83" t="s">
+      <c r="F8" s="66" t="s">
         <v>363</v>
       </c>
-      <c r="G8" s="82" t="s">
+      <c r="G8" s="65" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="22.1" x14ac:dyDescent="0.25">
-      <c r="A9" s="69"/>
-      <c r="B9" s="93">
+    <row r="9" spans="1:7" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="107"/>
+      <c r="B9" s="76">
         <v>8</v>
       </c>
-      <c r="C9" s="93" t="s">
+      <c r="C9" s="76" t="s">
         <v>386</v>
       </c>
-      <c r="D9" s="94" t="s">
+      <c r="D9" s="77" t="s">
         <v>110</v>
       </c>
-      <c r="E9" s="93" t="s">
+      <c r="E9" s="76" t="s">
         <v>245</v>
       </c>
-      <c r="F9" s="86" t="s">
+      <c r="F9" s="69" t="s">
         <v>384</v>
       </c>
-      <c r="G9" s="86" t="s">
+      <c r="G9" s="69" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="22.1" x14ac:dyDescent="0.25">
-      <c r="A10" s="67">
+    <row r="10" spans="1:7" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="105">
         <v>2</v>
       </c>
-      <c r="B10" s="70">
+      <c r="B10" s="54">
         <v>1</v>
       </c>
-      <c r="C10" s="70" t="s">
+      <c r="C10" s="54" t="s">
         <v>297</v>
       </c>
-      <c r="D10" s="88"/>
-      <c r="E10" s="70" t="s">
+      <c r="D10" s="71"/>
+      <c r="E10" s="54" t="s">
         <v>245</v>
       </c>
-      <c r="F10" s="81" t="s">
+      <c r="F10" s="64" t="s">
         <v>295</v>
       </c>
-      <c r="G10" s="81" t="s">
+      <c r="G10" s="64" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="22.1" x14ac:dyDescent="0.25">
-      <c r="A11" s="68"/>
-      <c r="B11" s="89">
+    <row r="11" spans="1:7" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="106"/>
+      <c r="B11" s="72">
         <v>2</v>
       </c>
-      <c r="C11" s="89" t="s">
+      <c r="C11" s="72" t="s">
         <v>156</v>
       </c>
-      <c r="D11" s="90"/>
-      <c r="E11" s="89" t="s">
+      <c r="D11" s="73"/>
+      <c r="E11" s="72" t="s">
         <v>245</v>
       </c>
-      <c r="F11" s="85" t="s">
+      <c r="F11" s="68" t="s">
         <v>302</v>
       </c>
-      <c r="G11" s="85" t="s">
+      <c r="G11" s="68" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="22.1" x14ac:dyDescent="0.25">
-      <c r="A12" s="68"/>
-      <c r="B12" s="71">
+    <row r="12" spans="1:7" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="106"/>
+      <c r="B12" s="55">
         <v>3</v>
       </c>
-      <c r="C12" s="72" t="s">
+      <c r="C12" s="56" t="s">
         <v>157</v>
       </c>
-      <c r="D12" s="91"/>
-      <c r="E12" s="72" t="s">
+      <c r="D12" s="74"/>
+      <c r="E12" s="56" t="s">
         <v>245</v>
       </c>
-      <c r="F12" s="83" t="s">
+      <c r="F12" s="66" t="s">
         <v>303</v>
       </c>
-      <c r="G12" s="82" t="s">
+      <c r="G12" s="65" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="22.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="68"/>
-      <c r="B13" s="89">
+    <row r="13" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="106"/>
+      <c r="B13" s="72">
         <v>4</v>
       </c>
-      <c r="C13" s="89" t="s">
+      <c r="C13" s="72" t="s">
         <v>292</v>
       </c>
-      <c r="D13" s="90"/>
-      <c r="E13" s="89" t="s">
+      <c r="D13" s="73"/>
+      <c r="E13" s="72" t="s">
         <v>246</v>
       </c>
-      <c r="F13" s="85" t="s">
+      <c r="F13" s="68" t="s">
         <v>178</v>
       </c>
-      <c r="G13" s="85" t="s">
+      <c r="G13" s="68" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="68"/>
-      <c r="B14" s="71">
+    <row r="14" spans="1:7" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="106"/>
+      <c r="B14" s="55">
         <v>5</v>
       </c>
-      <c r="C14" s="72" t="s">
+      <c r="C14" s="56" t="s">
         <v>159</v>
       </c>
-      <c r="D14" s="91">
+      <c r="D14" s="74">
         <v>1.6</v>
       </c>
-      <c r="E14" s="72" t="s">
+      <c r="E14" s="56" t="s">
         <v>245</v>
       </c>
-      <c r="F14" s="82" t="s">
+      <c r="F14" s="65" t="s">
         <v>380</v>
       </c>
-      <c r="G14" s="82" t="s">
+      <c r="G14" s="65" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="22.1" x14ac:dyDescent="0.25">
-      <c r="A15" s="68"/>
-      <c r="B15" s="89">
+    <row r="15" spans="1:7" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="106"/>
+      <c r="B15" s="72">
         <v>6</v>
       </c>
-      <c r="C15" s="89" t="s">
+      <c r="C15" s="72" t="s">
         <v>170</v>
       </c>
-      <c r="D15" s="90" t="s">
+      <c r="D15" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="89" t="s">
+      <c r="E15" s="72" t="s">
         <v>245</v>
       </c>
-      <c r="F15" s="85" t="s">
+      <c r="F15" s="68" t="s">
         <v>171</v>
       </c>
-      <c r="G15" s="85" t="s">
+      <c r="G15" s="68" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="68"/>
-      <c r="B16" s="71">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="106"/>
+      <c r="B16" s="55">
         <v>7</v>
       </c>
-      <c r="C16" s="72" t="s">
+      <c r="C16" s="56" t="s">
         <v>253</v>
       </c>
-      <c r="D16" s="91">
+      <c r="D16" s="74">
         <v>1.4</v>
       </c>
-      <c r="E16" s="72" t="s">
+      <c r="E16" s="56" t="s">
         <v>245</v>
       </c>
-      <c r="F16" s="83" t="s">
+      <c r="F16" s="66" t="s">
         <v>300</v>
       </c>
-      <c r="G16" s="82" t="s">
+      <c r="G16" s="65" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="22.1" x14ac:dyDescent="0.25">
-      <c r="A17" s="69"/>
-      <c r="B17" s="93">
+    <row r="17" spans="1:7" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="107"/>
+      <c r="B17" s="76">
         <v>8</v>
       </c>
-      <c r="C17" s="93" t="s">
+      <c r="C17" s="76" t="s">
         <v>350</v>
       </c>
-      <c r="D17" s="94" t="s">
+      <c r="D17" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="93" t="s">
+      <c r="E17" s="76" t="s">
         <v>245</v>
       </c>
-      <c r="F17" s="86" t="s">
+      <c r="F17" s="69" t="s">
         <v>387</v>
       </c>
-      <c r="G17" s="86" t="s">
+      <c r="G17" s="69" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="22.1" x14ac:dyDescent="0.25">
-      <c r="A18" s="67">
+    <row r="18" spans="1:7" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="105">
         <v>3</v>
       </c>
-      <c r="B18" s="70">
+      <c r="B18" s="54">
         <v>1</v>
       </c>
-      <c r="C18" s="70" t="s">
+      <c r="C18" s="54" t="s">
         <v>164</v>
       </c>
-      <c r="D18" s="88" t="s">
+      <c r="D18" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="70" t="s">
+      <c r="E18" s="54" t="s">
         <v>245</v>
       </c>
-      <c r="F18" s="81" t="s">
+      <c r="F18" s="64" t="s">
         <v>314</v>
       </c>
-      <c r="G18" s="81" t="s">
+      <c r="G18" s="64" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="68"/>
-      <c r="B19" s="89">
+    <row r="19" spans="1:7" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="106"/>
+      <c r="B19" s="72">
         <v>2</v>
       </c>
-      <c r="C19" s="89" t="s">
+      <c r="C19" s="72" t="s">
         <v>341</v>
       </c>
-      <c r="D19" s="90" t="s">
+      <c r="D19" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="89" t="s">
+      <c r="E19" s="72" t="s">
         <v>245</v>
       </c>
-      <c r="F19" s="85" t="s">
+      <c r="F19" s="68" t="s">
         <v>342</v>
       </c>
-      <c r="G19" s="85" t="s">
+      <c r="G19" s="68" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="22.1" x14ac:dyDescent="0.25">
-      <c r="A20" s="68"/>
-      <c r="B20" s="71">
+    <row r="20" spans="1:7" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="106"/>
+      <c r="B20" s="55">
         <v>3</v>
       </c>
-      <c r="C20" s="71" t="s">
+      <c r="C20" s="55" t="s">
         <v>166</v>
       </c>
-      <c r="D20" s="91" t="s">
+      <c r="D20" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="72" t="s">
+      <c r="E20" s="56" t="s">
         <v>245</v>
       </c>
-      <c r="F20" s="83" t="s">
+      <c r="F20" s="66" t="s">
         <v>180</v>
       </c>
-      <c r="G20" s="83" t="s">
+      <c r="G20" s="66" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="22.1" x14ac:dyDescent="0.25">
-      <c r="A21" s="68"/>
-      <c r="B21" s="89">
+    <row r="21" spans="1:7" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="106"/>
+      <c r="B21" s="72">
         <v>4</v>
       </c>
-      <c r="C21" s="89" t="s">
+      <c r="C21" s="72" t="s">
         <v>179</v>
       </c>
-      <c r="D21" s="90" t="s">
+      <c r="D21" s="73" t="s">
         <v>169</v>
       </c>
-      <c r="E21" s="89" t="s">
+      <c r="E21" s="72" t="s">
         <v>245</v>
       </c>
-      <c r="F21" s="85" t="s">
+      <c r="F21" s="68" t="s">
         <v>377</v>
       </c>
-      <c r="G21" s="85" t="s">
+      <c r="G21" s="68" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="22.1" x14ac:dyDescent="0.25">
-      <c r="A22" s="68"/>
-      <c r="B22" s="71">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="106"/>
+      <c r="B22" s="55">
         <v>5</v>
       </c>
-      <c r="C22" s="72" t="s">
+      <c r="C22" s="56" t="s">
         <v>167</v>
       </c>
-      <c r="D22" s="91" t="s">
+      <c r="D22" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="72" t="s">
+      <c r="E22" s="56" t="s">
         <v>245</v>
       </c>
-      <c r="F22" s="83" t="s">
+      <c r="F22" s="66" t="s">
         <v>359</v>
       </c>
-      <c r="G22" s="82" t="s">
+      <c r="G22" s="65" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="22.1" x14ac:dyDescent="0.25">
-      <c r="A23" s="68"/>
-      <c r="B23" s="89">
+    <row r="23" spans="1:7" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="106"/>
+      <c r="B23" s="72">
         <v>6</v>
       </c>
-      <c r="C23" s="89" t="s">
+      <c r="C23" s="72" t="s">
         <v>168</v>
       </c>
-      <c r="D23" s="90" t="s">
+      <c r="D23" s="73" t="s">
         <v>360</v>
       </c>
-      <c r="E23" s="89" t="s">
+      <c r="E23" s="72" t="s">
         <v>246</v>
       </c>
-      <c r="F23" s="85" t="s">
+      <c r="F23" s="68" t="s">
         <v>248</v>
       </c>
-      <c r="G23" s="85" t="s">
+      <c r="G23" s="68" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="22.1" x14ac:dyDescent="0.25">
-      <c r="A24" s="68"/>
-      <c r="B24" s="71">
+    <row r="24" spans="1:7" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="106"/>
+      <c r="B24" s="55">
         <v>7</v>
       </c>
-      <c r="C24" s="72" t="s">
+      <c r="C24" s="56" t="s">
         <v>311</v>
       </c>
-      <c r="D24" s="91" t="s">
+      <c r="D24" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="E24" s="72" t="s">
+      <c r="E24" s="56" t="s">
         <v>245</v>
       </c>
-      <c r="F24" s="83" t="s">
+      <c r="F24" s="66" t="s">
         <v>313</v>
       </c>
-      <c r="G24" s="82" t="s">
+      <c r="G24" s="65" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="69"/>
-      <c r="B25" s="93">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="107"/>
+      <c r="B25" s="76">
         <v>8</v>
       </c>
-      <c r="C25" s="93" t="s">
+      <c r="C25" s="76" t="s">
         <v>364</v>
       </c>
-      <c r="D25" s="94">
+      <c r="D25" s="77">
         <v>1.7</v>
       </c>
-      <c r="E25" s="93" t="s">
+      <c r="E25" s="76" t="s">
         <v>245</v>
       </c>
-      <c r="F25" s="86" t="s">
+      <c r="F25" s="69" t="s">
         <v>365</v>
       </c>
-      <c r="G25" s="86" t="s">
+      <c r="G25" s="69" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="22.1" x14ac:dyDescent="0.25">
-      <c r="A26" s="67">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="105">
         <v>4</v>
       </c>
-      <c r="B26" s="70">
+      <c r="B26" s="54">
         <v>1</v>
       </c>
-      <c r="C26" s="70" t="s">
+      <c r="C26" s="54" t="s">
         <v>172</v>
       </c>
-      <c r="D26" s="88">
+      <c r="D26" s="71">
         <v>2.5</v>
       </c>
-      <c r="E26" s="70" t="s">
+      <c r="E26" s="54" t="s">
         <v>245</v>
       </c>
-      <c r="F26" s="81" t="s">
+      <c r="F26" s="64" t="s">
         <v>379</v>
       </c>
-      <c r="G26" s="81" t="s">
+      <c r="G26" s="64" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="27.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="68"/>
-      <c r="B27" s="89">
+    <row r="27" spans="1:7" ht="27.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="106"/>
+      <c r="B27" s="72">
         <v>2</v>
       </c>
-      <c r="C27" s="89" t="s">
+      <c r="C27" s="72" t="s">
         <v>174</v>
       </c>
-      <c r="D27" s="90" t="s">
+      <c r="D27" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="E27" s="89" t="s">
+      <c r="E27" s="72" t="s">
         <v>246</v>
       </c>
-      <c r="F27" s="85" t="s">
+      <c r="F27" s="68" t="s">
         <v>357</v>
       </c>
-      <c r="G27" s="85" t="s">
+      <c r="G27" s="68" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="22.1" x14ac:dyDescent="0.25">
-      <c r="A28" s="68"/>
-      <c r="B28" s="71">
+    <row r="28" spans="1:7" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="106"/>
+      <c r="B28" s="55">
         <v>3</v>
       </c>
-      <c r="C28" s="72" t="s">
+      <c r="C28" s="56" t="s">
         <v>173</v>
       </c>
-      <c r="D28" s="91"/>
-      <c r="E28" s="72" t="s">
+      <c r="D28" s="74"/>
+      <c r="E28" s="56" t="s">
         <v>245</v>
       </c>
-      <c r="F28" s="83" t="s">
+      <c r="F28" s="66" t="s">
         <v>371</v>
       </c>
-      <c r="G28" s="82" t="s">
+      <c r="G28" s="65" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="23.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="68"/>
-      <c r="B29" s="89">
+    <row r="29" spans="1:7" ht="23.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="106"/>
+      <c r="B29" s="72">
         <v>4</v>
       </c>
-      <c r="C29" s="89" t="s">
+      <c r="C29" s="72" t="s">
         <v>175</v>
       </c>
-      <c r="D29" s="90" t="s">
+      <c r="D29" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="89" t="s">
+      <c r="E29" s="72" t="s">
         <v>245</v>
       </c>
-      <c r="F29" s="85" t="s">
+      <c r="F29" s="68" t="s">
         <v>177</v>
       </c>
-      <c r="G29" s="85" t="s">
+      <c r="G29" s="68" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="68"/>
-      <c r="B30" s="71">
+    <row r="30" spans="1:7" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="106"/>
+      <c r="B30" s="55">
         <v>5</v>
       </c>
-      <c r="C30" s="72" t="s">
+      <c r="C30" s="56" t="s">
         <v>249</v>
       </c>
-      <c r="D30" s="91" t="s">
+      <c r="D30" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="E30" s="72" t="s">
+      <c r="E30" s="56" t="s">
         <v>245</v>
       </c>
-      <c r="F30" s="82" t="s">
+      <c r="F30" s="65" t="s">
         <v>250</v>
       </c>
-      <c r="G30" s="82" t="s">
+      <c r="G30" s="65" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="22.1" x14ac:dyDescent="0.25">
-      <c r="A31" s="68"/>
-      <c r="B31" s="89">
+    <row r="31" spans="1:7" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="106"/>
+      <c r="B31" s="72">
         <v>6</v>
       </c>
-      <c r="C31" s="89" t="s">
+      <c r="C31" s="72" t="s">
         <v>305</v>
       </c>
-      <c r="D31" s="90" t="s">
+      <c r="D31" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="E31" s="89" t="s">
+      <c r="E31" s="72" t="s">
         <v>245</v>
       </c>
-      <c r="F31" s="85" t="s">
+      <c r="F31" s="68" t="s">
         <v>307</v>
       </c>
-      <c r="G31" s="85" t="s">
+      <c r="G31" s="68" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="22.1" x14ac:dyDescent="0.25">
-      <c r="A32" s="68"/>
-      <c r="B32" s="71">
+    <row r="32" spans="1:7" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="106"/>
+      <c r="B32" s="55">
         <v>7</v>
       </c>
-      <c r="C32" s="72" t="s">
+      <c r="C32" s="56" t="s">
         <v>165</v>
       </c>
-      <c r="D32" s="91" t="s">
+      <c r="D32" s="74" t="s">
         <v>336</v>
       </c>
-      <c r="E32" s="71" t="s">
+      <c r="E32" s="55" t="s">
         <v>245</v>
       </c>
-      <c r="F32" s="82" t="s">
+      <c r="F32" s="65" t="s">
         <v>338</v>
       </c>
-      <c r="G32" s="82" t="s">
+      <c r="G32" s="65" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="22.1" x14ac:dyDescent="0.25">
-      <c r="A33" s="69"/>
-      <c r="B33" s="93">
+    <row r="33" spans="1:7" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="107"/>
+      <c r="B33" s="76">
         <v>8</v>
       </c>
-      <c r="C33" s="93" t="s">
+      <c r="C33" s="76" t="s">
         <v>349</v>
       </c>
-      <c r="D33" s="94" t="s">
+      <c r="D33" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="E33" s="93" t="s">
+      <c r="E33" s="76" t="s">
         <v>245</v>
       </c>
-      <c r="F33" s="86" t="s">
+      <c r="F33" s="69" t="s">
         <v>383</v>
       </c>
-      <c r="G33" s="86" t="s">
+      <c r="G33" s="69" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="66">
+    <row r="34" spans="1:7" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="108">
         <v>5</v>
       </c>
-      <c r="B34" s="73">
+      <c r="B34" s="57">
         <v>1</v>
       </c>
-      <c r="C34" s="73" t="s">
+      <c r="C34" s="57" t="s">
         <v>354</v>
       </c>
-      <c r="D34" s="95" t="s">
+      <c r="D34" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="E34" s="73" t="s">
+      <c r="E34" s="57" t="s">
         <v>245</v>
       </c>
-      <c r="F34" s="83" t="s">
+      <c r="F34" s="66" t="s">
         <v>353</v>
       </c>
-      <c r="G34" s="84" t="s">
+      <c r="G34" s="67" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="66"/>
-      <c r="B35" s="96">
+    <row r="35" spans="1:7" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="108"/>
+      <c r="B35" s="79">
         <v>2</v>
       </c>
-      <c r="C35" s="96" t="s">
+      <c r="C35" s="79" t="s">
         <v>176</v>
       </c>
-      <c r="D35" s="97" t="s">
+      <c r="D35" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="E35" s="96" t="s">
+      <c r="E35" s="79" t="s">
         <v>245</v>
       </c>
-      <c r="F35" s="85" t="s">
+      <c r="F35" s="68" t="s">
         <v>369</v>
       </c>
-      <c r="G35" s="87" t="s">
+      <c r="G35" s="70" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="22.1" x14ac:dyDescent="0.25">
-      <c r="A36" s="66"/>
-      <c r="B36" s="73">
+    <row r="36" spans="1:7" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="108"/>
+      <c r="B36" s="57">
         <v>3</v>
       </c>
-      <c r="C36" s="73" t="s">
+      <c r="C36" s="57" t="s">
         <v>344</v>
       </c>
-      <c r="D36" s="95" t="s">
+      <c r="D36" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="E36" s="73" t="s">
+      <c r="E36" s="57" t="s">
         <v>246</v>
       </c>
-      <c r="F36" s="84" t="s">
+      <c r="F36" s="67" t="s">
         <v>345</v>
       </c>
-      <c r="G36" s="84" t="s">
+      <c r="G36" s="67" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="22.1" x14ac:dyDescent="0.25">
-      <c r="A37" s="66"/>
-      <c r="B37" s="96">
+    <row r="37" spans="1:7" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="108"/>
+      <c r="B37" s="79">
         <v>4</v>
       </c>
-      <c r="C37" s="96" t="s">
+      <c r="C37" s="79" t="s">
         <v>346</v>
       </c>
-      <c r="D37" s="97" t="s">
+      <c r="D37" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="E37" s="96" t="s">
+      <c r="E37" s="79" t="s">
         <v>245</v>
       </c>
-      <c r="F37" s="87" t="s">
+      <c r="F37" s="70" t="s">
         <v>352</v>
       </c>
-      <c r="G37" s="87" t="s">
+      <c r="G37" s="70" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="22.1" x14ac:dyDescent="0.25">
-      <c r="A38" s="66"/>
-      <c r="B38" s="73">
+    <row r="38" spans="1:7" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="108"/>
+      <c r="B38" s="57">
         <v>5</v>
       </c>
-      <c r="C38" s="73" t="s">
+      <c r="C38" s="57" t="s">
         <v>372</v>
       </c>
-      <c r="D38" s="95" t="s">
+      <c r="D38" s="78" t="s">
         <v>374</v>
       </c>
-      <c r="E38" s="73" t="s">
+      <c r="E38" s="57" t="s">
         <v>245</v>
       </c>
-      <c r="F38" s="84" t="s">
+      <c r="F38" s="67" t="s">
         <v>373</v>
       </c>
-      <c r="G38" s="84" t="s">
+      <c r="G38" s="67" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="24.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="66"/>
-      <c r="B39" s="96">
+    <row r="39" spans="1:7" ht="24.3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="108"/>
+      <c r="B39" s="79">
         <v>6</v>
       </c>
-      <c r="C39" s="96" t="s">
+      <c r="C39" s="79" t="s">
         <v>385</v>
       </c>
-      <c r="D39" s="97">
+      <c r="D39" s="80">
         <v>1.8</v>
       </c>
-      <c r="E39" s="96" t="s">
+      <c r="E39" s="79" t="s">
         <v>245</v>
       </c>
-      <c r="F39" s="87" t="s">
+      <c r="F39" s="70" t="s">
         <v>381</v>
       </c>
-      <c r="G39" s="87" t="s">
+      <c r="G39" s="70" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="66"/>
-      <c r="B40" s="73">
+    <row r="40" spans="1:7" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="108"/>
+      <c r="B40" s="57">
         <v>7</v>
       </c>
-      <c r="C40" s="73" t="s">
+      <c r="C40" s="57" t="s">
         <v>388</v>
       </c>
-      <c r="D40" s="95">
+      <c r="D40" s="78">
         <v>2.8</v>
       </c>
-      <c r="E40" s="73" t="s">
+      <c r="E40" s="57" t="s">
         <v>246</v>
       </c>
-      <c r="F40" s="84" t="s">
+      <c r="F40" s="67" t="s">
         <v>390</v>
       </c>
-      <c r="G40" s="84" t="s">
+      <c r="G40" s="67" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="22.1" x14ac:dyDescent="0.25">
-      <c r="A41" s="66"/>
-      <c r="B41" s="96">
+    <row r="41" spans="1:7" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="108"/>
+      <c r="B41" s="79">
         <v>8</v>
       </c>
-      <c r="C41" s="96" t="s">
+      <c r="C41" s="79" t="s">
         <v>393</v>
       </c>
-      <c r="D41" s="97" t="s">
+      <c r="D41" s="80" t="s">
         <v>396</v>
       </c>
-      <c r="E41" s="96" t="s">
+      <c r="E41" s="79" t="s">
         <v>245</v>
       </c>
-      <c r="F41" s="87" t="s">
+      <c r="F41" s="70" t="s">
         <v>395</v>
       </c>
-      <c r="G41" s="87" t="s">
+      <c r="G41" s="70" t="s">
         <v>394</v>
       </c>
     </row>
@@ -3858,15 +4090,17 @@
     <sheetView workbookViewId="0">
       <selection sqref="A1:D13"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="33.42578125" customWidth="1"/>
-    <col min="3" max="3" width="40.42578125" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" customWidth="1"/>
+    <col min="2" max="2" width="33.44140625" customWidth="1"/>
+    <col min="3" max="3" width="40.44140625" customWidth="1"/>
+    <col min="4" max="4" width="24.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>255</v>
       </c>
@@ -3880,7 +4114,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3894,21 +4128,21 @@
         <v>280</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="79">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="62">
         <v>2</v>
       </c>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="62" t="s">
         <v>256</v>
       </c>
-      <c r="C3" s="79" t="s">
+      <c r="C3" s="62" t="s">
         <v>269</v>
       </c>
-      <c r="D3" s="79" t="s">
+      <c r="D3" s="62" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3922,21 +4156,21 @@
         <v>282</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="79">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="62">
         <v>4</v>
       </c>
-      <c r="B5" s="79" t="s">
+      <c r="B5" s="62" t="s">
         <v>259</v>
       </c>
-      <c r="C5" s="79" t="s">
+      <c r="C5" s="62" t="s">
         <v>271</v>
       </c>
-      <c r="D5" s="79" t="s">
+      <c r="D5" s="62" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3950,21 +4184,21 @@
         <v>284</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="79">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="62">
         <v>6</v>
       </c>
-      <c r="B7" s="79" t="s">
+      <c r="B7" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="C7" s="79" t="s">
+      <c r="C7" s="62" t="s">
         <v>273</v>
       </c>
-      <c r="D7" s="79" t="s">
+      <c r="D7" s="62" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3978,21 +4212,21 @@
         <v>286</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="79">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="62">
         <v>8</v>
       </c>
-      <c r="B9" s="79" t="s">
+      <c r="B9" s="62" t="s">
         <v>263</v>
       </c>
-      <c r="C9" s="79" t="s">
+      <c r="C9" s="62" t="s">
         <v>276</v>
       </c>
-      <c r="D9" s="79" t="s">
+      <c r="D9" s="62" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4006,21 +4240,21 @@
         <v>288</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="79">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="62">
         <v>10</v>
       </c>
-      <c r="B11" s="79" t="s">
+      <c r="B11" s="62" t="s">
         <v>265</v>
       </c>
-      <c r="C11" s="79" t="s">
+      <c r="C11" s="62" t="s">
         <v>277</v>
       </c>
-      <c r="D11" s="79" t="s">
+      <c r="D11" s="62" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4034,17 +4268,17 @@
         <v>290</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="79">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="62">
         <v>12</v>
       </c>
-      <c r="B13" s="79" t="s">
+      <c r="B13" s="62" t="s">
         <v>267</v>
       </c>
-      <c r="C13" s="79" t="s">
+      <c r="C13" s="62" t="s">
         <v>279</v>
       </c>
-      <c r="D13" s="79" t="s">
+      <c r="D13" s="62" t="s">
         <v>291</v>
       </c>
     </row>
@@ -4060,16 +4294,18 @@
     <sheetView workbookViewId="0">
       <selection sqref="A1:D13"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="38.140625" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="38.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>150</v>
       </c>
@@ -4083,7 +4319,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>318</v>
       </c>
@@ -4097,21 +4333,21 @@
         <v>330</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="79" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="62" t="s">
         <v>319</v>
       </c>
-      <c r="B3" s="79">
+      <c r="B3" s="62">
         <v>2</v>
       </c>
-      <c r="C3" s="79">
+      <c r="C3" s="62">
         <v>4</v>
       </c>
-      <c r="D3" s="79" t="s">
+      <c r="D3" s="62" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>320</v>
       </c>
@@ -4125,21 +4361,21 @@
         <v>332</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="79" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="62" t="s">
         <v>321</v>
       </c>
-      <c r="B5" s="79">
+      <c r="B5" s="62">
         <v>2</v>
       </c>
-      <c r="C5" s="79">
+      <c r="C5" s="62">
         <v>4</v>
       </c>
-      <c r="D5" s="79" t="s">
+      <c r="D5" s="62" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>322</v>
       </c>
@@ -4153,21 +4389,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="79" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="62" t="s">
         <v>323</v>
       </c>
-      <c r="B7" s="79">
+      <c r="B7" s="62">
         <v>2</v>
       </c>
-      <c r="C7" s="79">
+      <c r="C7" s="62">
         <v>4</v>
       </c>
-      <c r="D7" s="79" t="s">
+      <c r="D7" s="62" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>324</v>
       </c>
@@ -4181,21 +4417,21 @@
         <v>334</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="79" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="62" t="s">
         <v>325</v>
       </c>
-      <c r="B9" s="79">
+      <c r="B9" s="62">
         <v>2</v>
       </c>
-      <c r="C9" s="79">
+      <c r="C9" s="62">
         <v>4</v>
       </c>
-      <c r="D9" s="79" t="s">
+      <c r="D9" s="62" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>326</v>
       </c>
@@ -4209,21 +4445,21 @@
         <v>333</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="79" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="62" t="s">
         <v>327</v>
       </c>
-      <c r="B11" s="79">
+      <c r="B11" s="62">
         <v>6</v>
       </c>
-      <c r="C11" s="79">
+      <c r="C11" s="62">
         <v>12</v>
       </c>
-      <c r="D11" s="79" t="s">
+      <c r="D11" s="62" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>328</v>
       </c>
@@ -4237,17 +4473,17 @@
         <v>335</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="79" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="62" t="s">
         <v>329</v>
       </c>
-      <c r="B13" s="79">
+      <c r="B13" s="62">
         <v>8</v>
       </c>
-      <c r="C13" s="80" t="s">
+      <c r="C13" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="79"/>
+      <c r="D13" s="62"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4259,18 +4495,20 @@
   <dimension ref="A1:T49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T49" sqref="A1:T49"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" customWidth="1"/>
-    <col min="3" max="18" width="3.7109375" style="11" customWidth="1"/>
-    <col min="19" max="20" width="3.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" customWidth="1"/>
+    <col min="3" max="18" width="3.6640625" style="11" customWidth="1"/>
+    <col min="19" max="20" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="59.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="59.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
       <c r="C1" s="14" t="s">
@@ -4328,8 +4566,8 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" s="109" t="s">
         <v>60</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -4372,8 +4610,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="58"/>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" s="110"/>
       <c r="B3" s="7" t="s">
         <v>55</v>
       </c>
@@ -4398,8 +4636,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="59" t="s">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" s="111" t="s">
         <v>57</v>
       </c>
       <c r="B4" s="13" t="s">
@@ -4434,8 +4672,8 @@
       <c r="S4" s="18"/>
       <c r="T4" s="30"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="58"/>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" s="110"/>
       <c r="B5" s="7" t="s">
         <v>55</v>
       </c>
@@ -4462,8 +4700,8 @@
       <c r="S5" s="19"/>
       <c r="T5" s="31"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="59" t="s">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" s="111" t="s">
         <v>58</v>
       </c>
       <c r="B6" s="13" t="s">
@@ -4500,8 +4738,8 @@
       <c r="S6" s="18"/>
       <c r="T6" s="30"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="58"/>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" s="110"/>
       <c r="B7" s="7" t="s">
         <v>55</v>
       </c>
@@ -4526,8 +4764,8 @@
       <c r="S7" s="19"/>
       <c r="T7" s="31"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="59" t="s">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" s="111" t="s">
         <v>59</v>
       </c>
       <c r="B8" s="13" t="s">
@@ -4562,8 +4800,8 @@
       <c r="S8" s="18"/>
       <c r="T8" s="30"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="58"/>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" s="110"/>
       <c r="B9" s="7" t="s">
         <v>55</v>
       </c>
@@ -4590,8 +4828,8 @@
       <c r="S9" s="19"/>
       <c r="T9" s="31"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="60" t="s">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" s="112" t="s">
         <v>74</v>
       </c>
       <c r="B10" s="13" t="s">
@@ -4620,8 +4858,8 @@
       <c r="S10" s="18"/>
       <c r="T10" s="30"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="61"/>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" s="113"/>
       <c r="B11" s="7" t="s">
         <v>55</v>
       </c>
@@ -4646,8 +4884,8 @@
       <c r="S11" s="19"/>
       <c r="T11" s="31"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="60" t="s">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" s="112" t="s">
         <v>75</v>
       </c>
       <c r="B12" s="13" t="s">
@@ -4682,8 +4920,8 @@
       <c r="S12" s="18"/>
       <c r="T12" s="30"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="61"/>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" s="113"/>
       <c r="B13" s="7" t="s">
         <v>55</v>
       </c>
@@ -4708,8 +4946,8 @@
       <c r="S13" s="19"/>
       <c r="T13" s="31"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="60" t="s">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" s="112" t="s">
         <v>76</v>
       </c>
       <c r="B14" s="13" t="s">
@@ -4740,8 +4978,8 @@
       <c r="S14" s="18"/>
       <c r="T14" s="30"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="61"/>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" s="113"/>
       <c r="B15" s="7" t="s">
         <v>55</v>
       </c>
@@ -4766,8 +5004,8 @@
       <c r="S15" s="19"/>
       <c r="T15" s="31"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="60" t="s">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" s="112" t="s">
         <v>77</v>
       </c>
       <c r="B16" s="13" t="s">
@@ -4802,8 +5040,8 @@
       <c r="S16" s="18"/>
       <c r="T16" s="30"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="61"/>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A17" s="113"/>
       <c r="B17" s="7" t="s">
         <v>55</v>
       </c>
@@ -4828,8 +5066,8 @@
       <c r="S17" s="19"/>
       <c r="T17" s="31"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="62" t="s">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A18" s="114" t="s">
         <v>78</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -4860,8 +5098,8 @@
       <c r="S18" s="22"/>
       <c r="T18" s="30"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="61"/>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A19" s="113"/>
       <c r="B19" s="8" t="s">
         <v>55</v>
       </c>
@@ -4886,8 +5124,8 @@
       <c r="S19" s="22"/>
       <c r="T19" s="31"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="59" t="s">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A20" s="111" t="s">
         <v>71</v>
       </c>
       <c r="B20" s="13" t="s">
@@ -4918,8 +5156,8 @@
       <c r="S20" s="18"/>
       <c r="T20" s="30"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="58"/>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A21" s="110"/>
       <c r="B21" s="7" t="s">
         <v>55</v>
       </c>
@@ -4944,8 +5182,8 @@
       <c r="S21" s="19"/>
       <c r="T21" s="31"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="60" t="s">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A22" s="112" t="s">
         <v>79</v>
       </c>
       <c r="B22" s="13" t="s">
@@ -4980,8 +5218,8 @@
       <c r="S22" s="18"/>
       <c r="T22" s="30"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="61"/>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A23" s="113"/>
       <c r="B23" s="7" t="s">
         <v>55</v>
       </c>
@@ -5006,8 +5244,8 @@
       <c r="S23" s="19"/>
       <c r="T23" s="31"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="60" t="s">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A24" s="112" t="s">
         <v>72</v>
       </c>
       <c r="B24" s="13" t="s">
@@ -5038,8 +5276,8 @@
       <c r="S24" s="18"/>
       <c r="T24" s="30"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="61"/>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A25" s="113"/>
       <c r="B25" s="7" t="s">
         <v>55</v>
       </c>
@@ -5064,8 +5302,8 @@
       <c r="S25" s="19"/>
       <c r="T25" s="31"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="59" t="s">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A26" s="111" t="s">
         <v>73</v>
       </c>
       <c r="B26" s="13" t="s">
@@ -5100,8 +5338,8 @@
       <c r="S26" s="18"/>
       <c r="T26" s="30"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="58"/>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A27" s="110"/>
       <c r="B27" s="7" t="s">
         <v>55</v>
       </c>
@@ -5126,8 +5364,8 @@
       <c r="S27" s="19"/>
       <c r="T27" s="31"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="59" t="s">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A28" s="111" t="s">
         <v>61</v>
       </c>
       <c r="B28" s="13" t="s">
@@ -5164,8 +5402,8 @@
       <c r="S28" s="18"/>
       <c r="T28" s="30"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="58"/>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A29" s="110"/>
       <c r="B29" s="7" t="s">
         <v>55</v>
       </c>
@@ -5190,8 +5428,8 @@
       <c r="S29" s="19"/>
       <c r="T29" s="31"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="59" t="s">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A30" s="111" t="s">
         <v>62</v>
       </c>
       <c r="B30" s="13" t="s">
@@ -5222,8 +5460,8 @@
       <c r="S30" s="18"/>
       <c r="T30" s="30"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="58"/>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A31" s="110"/>
       <c r="B31" s="7" t="s">
         <v>55</v>
       </c>
@@ -5248,8 +5486,8 @@
       <c r="S31" s="19"/>
       <c r="T31" s="31"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="59" t="s">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A32" s="111" t="s">
         <v>63</v>
       </c>
       <c r="B32" s="13" t="s">
@@ -5286,8 +5524,8 @@
       <c r="S32" s="18"/>
       <c r="T32" s="30"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A33" s="58"/>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A33" s="110"/>
       <c r="B33" s="7" t="s">
         <v>55</v>
       </c>
@@ -5312,8 +5550,8 @@
       <c r="S33" s="19"/>
       <c r="T33" s="31"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A34" s="59" t="s">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A34" s="111" t="s">
         <v>64</v>
       </c>
       <c r="B34" s="13" t="s">
@@ -5348,8 +5586,8 @@
       <c r="S34" s="18"/>
       <c r="T34" s="30"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A35" s="58"/>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A35" s="110"/>
       <c r="B35" s="7" t="s">
         <v>55</v>
       </c>
@@ -5374,8 +5612,8 @@
       <c r="S35" s="19"/>
       <c r="T35" s="31"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A36" s="59" t="s">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A36" s="111" t="s">
         <v>65</v>
       </c>
       <c r="B36" s="13" t="s">
@@ -5410,8 +5648,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A37" s="58"/>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A37" s="110"/>
       <c r="B37" s="7" t="s">
         <v>55</v>
       </c>
@@ -5436,8 +5674,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="59" t="s">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A38" s="111" t="s">
         <v>54</v>
       </c>
       <c r="B38" s="13" t="s">
@@ -5474,8 +5712,8 @@
       <c r="S38" s="18"/>
       <c r="T38" s="30"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A39" s="58"/>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A39" s="110"/>
       <c r="B39" s="7" t="s">
         <v>55</v>
       </c>
@@ -5500,8 +5738,8 @@
       <c r="S39" s="19"/>
       <c r="T39" s="31"/>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A40" s="59" t="s">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A40" s="111" t="s">
         <v>66</v>
       </c>
       <c r="B40" s="13" t="s">
@@ -5532,8 +5770,8 @@
       <c r="S40" s="18"/>
       <c r="T40" s="30"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A41" s="58"/>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A41" s="110"/>
       <c r="B41" s="7" t="s">
         <v>55</v>
       </c>
@@ -5560,8 +5798,8 @@
       <c r="S41" s="19"/>
       <c r="T41" s="31"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A42" s="59" t="s">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A42" s="111" t="s">
         <v>67</v>
       </c>
       <c r="B42" s="13" t="s">
@@ -5592,8 +5830,8 @@
       </c>
       <c r="T42" s="30"/>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A43" s="58"/>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A43" s="110"/>
       <c r="B43" s="7" t="s">
         <v>55</v>
       </c>
@@ -5618,8 +5856,8 @@
       </c>
       <c r="T43" s="31"/>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A44" s="59" t="s">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A44" s="111" t="s">
         <v>68</v>
       </c>
       <c r="B44" s="13" t="s">
@@ -5652,8 +5890,8 @@
       <c r="S44" s="18"/>
       <c r="T44" s="30"/>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A45" s="58"/>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A45" s="110"/>
       <c r="B45" s="7" t="s">
         <v>55</v>
       </c>
@@ -5678,8 +5916,8 @@
       <c r="S45" s="19"/>
       <c r="T45" s="31"/>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A46" s="59" t="s">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A46" s="111" t="s">
         <v>53</v>
       </c>
       <c r="B46" s="13" t="s">
@@ -5714,8 +5952,8 @@
       </c>
       <c r="T46" s="40"/>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A47" s="58"/>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A47" s="110"/>
       <c r="B47" s="7" t="s">
         <v>55</v>
       </c>
@@ -5742,7 +5980,7 @@
       </c>
       <c r="T47" s="31"/>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B48" s="32" t="s">
         <v>82</v>
       </c>
@@ -5819,7 +6057,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>83</v>
       </c>
@@ -5931,18 +6169,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C5A4A11-AEFD-4038-AE50-FBFC17479FFE}">
   <dimension ref="A1:AA47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="I48" sqref="I48"/>
     </sheetView>
+    <sheetView tabSelected="1" workbookViewId="1">
+      <pane xSplit="12552" ySplit="5244" activePane="bottomRight"/>
+      <selection activeCell="U11" sqref="U11"/>
+      <selection pane="topRight" activeCell="AC8" sqref="AC8"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
+    </sheetView>
+    <sheetView workbookViewId="2"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" customWidth="1"/>
-    <col min="3" max="27" width="3.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.5546875" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" customWidth="1"/>
+    <col min="3" max="27" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="60.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="60.6" x14ac:dyDescent="0.3">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
       <c r="C1" s="14" t="s">
@@ -5993,10 +6239,10 @@
       <c r="R1" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="S1" s="98" t="s">
+      <c r="S1" s="81" t="s">
         <v>144</v>
       </c>
-      <c r="T1" s="107" t="s">
+      <c r="T1" s="90" t="s">
         <v>40</v>
       </c>
       <c r="U1" s="14" t="s">
@@ -6021,8 +6267,8 @@
         <v>206</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A2" s="115" t="s">
         <v>39</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -6070,16 +6316,16 @@
       <c r="T2" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="U2" s="108"/>
+      <c r="U2" s="91"/>
       <c r="V2" s="30"/>
-      <c r="W2" s="108"/>
+      <c r="W2" s="91"/>
       <c r="X2" s="30"/>
-      <c r="Y2" s="108"/>
-      <c r="Z2" s="110"/>
-      <c r="AA2" s="108"/>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" s="63"/>
+      <c r="Y2" s="91"/>
+      <c r="Z2" s="93"/>
+      <c r="AA2" s="91"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A3" s="115"/>
       <c r="B3" s="37" t="s">
         <v>105</v>
       </c>
@@ -6113,22 +6359,22 @@
       <c r="R3" s="37">
         <v>1</v>
       </c>
-      <c r="S3" s="99">
+      <c r="S3" s="82">
         <v>1</v>
       </c>
-      <c r="T3" s="114"/>
-      <c r="U3" s="115" t="s">
-        <v>70</v>
-      </c>
-      <c r="V3" s="116"/>
-      <c r="W3" s="115"/>
-      <c r="X3" s="116"/>
-      <c r="Y3" s="115"/>
-      <c r="Z3" s="117"/>
-      <c r="AA3" s="115"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="63"/>
+      <c r="T3" s="97"/>
+      <c r="U3" s="98" t="s">
+        <v>70</v>
+      </c>
+      <c r="V3" s="99"/>
+      <c r="W3" s="98"/>
+      <c r="X3" s="99"/>
+      <c r="Y3" s="98"/>
+      <c r="Z3" s="100"/>
+      <c r="AA3" s="98"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A4" s="115"/>
       <c r="B4" s="4" t="s">
         <v>106</v>
       </c>
@@ -6166,20 +6412,20 @@
       <c r="R4" s="41">
         <v>2</v>
       </c>
-      <c r="S4" s="100">
+      <c r="S4" s="83">
         <v>3</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="108"/>
+      <c r="U4" s="91"/>
       <c r="V4" s="30"/>
-      <c r="W4" s="108"/>
+      <c r="W4" s="91"/>
       <c r="X4" s="30"/>
-      <c r="Y4" s="108"/>
-      <c r="Z4" s="110"/>
-      <c r="AA4" s="108"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="63"/>
+      <c r="Y4" s="91"/>
+      <c r="Z4" s="93"/>
+      <c r="AA4" s="91"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A5" s="115"/>
       <c r="B5" s="37" t="s">
         <v>107</v>
       </c>
@@ -6213,20 +6459,20 @@
       <c r="R5" s="37">
         <v>2</v>
       </c>
-      <c r="S5" s="99">
+      <c r="S5" s="82">
         <v>3</v>
       </c>
-      <c r="T5" s="114"/>
-      <c r="U5" s="115"/>
-      <c r="V5" s="116"/>
-      <c r="W5" s="115"/>
-      <c r="X5" s="116"/>
-      <c r="Y5" s="115"/>
-      <c r="Z5" s="117"/>
-      <c r="AA5" s="115"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="63"/>
+      <c r="T5" s="97"/>
+      <c r="U5" s="98"/>
+      <c r="V5" s="99"/>
+      <c r="W5" s="98"/>
+      <c r="X5" s="99"/>
+      <c r="Y5" s="98"/>
+      <c r="Z5" s="100"/>
+      <c r="AA5" s="98"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A6" s="115"/>
       <c r="B6" s="4" t="s">
         <v>108</v>
       </c>
@@ -6252,20 +6498,20 @@
       <c r="R6" s="41">
         <v>3</v>
       </c>
-      <c r="S6" s="100">
+      <c r="S6" s="83">
         <v>5</v>
       </c>
       <c r="T6" s="30"/>
-      <c r="U6" s="108"/>
+      <c r="U6" s="91"/>
       <c r="V6" s="30"/>
-      <c r="W6" s="108"/>
+      <c r="W6" s="91"/>
       <c r="X6" s="30"/>
-      <c r="Y6" s="108"/>
-      <c r="Z6" s="110"/>
-      <c r="AA6" s="108"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="63"/>
+      <c r="Y6" s="91"/>
+      <c r="Z6" s="93"/>
+      <c r="AA6" s="91"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A7" s="115"/>
       <c r="B7" s="37" t="s">
         <v>109</v>
       </c>
@@ -6291,20 +6537,20 @@
       <c r="R7" s="37">
         <v>3</v>
       </c>
-      <c r="S7" s="99">
+      <c r="S7" s="82">
         <v>5</v>
       </c>
-      <c r="T7" s="114"/>
-      <c r="U7" s="115"/>
-      <c r="V7" s="116"/>
-      <c r="W7" s="115"/>
-      <c r="X7" s="116"/>
-      <c r="Y7" s="115"/>
-      <c r="Z7" s="117"/>
-      <c r="AA7" s="115"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="64"/>
+      <c r="T7" s="97"/>
+      <c r="U7" s="98"/>
+      <c r="V7" s="99"/>
+      <c r="W7" s="98"/>
+      <c r="X7" s="99"/>
+      <c r="Y7" s="98"/>
+      <c r="Z7" s="100"/>
+      <c r="AA7" s="98"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A8" s="116"/>
       <c r="B8" s="7" t="s">
         <v>110</v>
       </c>
@@ -6336,22 +6582,22 @@
       <c r="R8" s="7">
         <v>2</v>
       </c>
-      <c r="S8" s="101">
+      <c r="S8" s="84">
         <v>3</v>
       </c>
-      <c r="T8" s="109"/>
+      <c r="T8" s="92"/>
       <c r="U8" s="19"/>
       <c r="V8" s="31"/>
       <c r="W8" s="19"/>
       <c r="X8" s="31"/>
       <c r="Y8" s="19"/>
-      <c r="Z8" s="112"/>
+      <c r="Z8" s="95"/>
       <c r="AA8" s="19" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="65" t="s">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A9" s="117" t="s">
         <v>138</v>
       </c>
       <c r="B9" s="13" t="s">
@@ -6405,22 +6651,22 @@
       <c r="R9" s="46">
         <v>1</v>
       </c>
-      <c r="S9" s="102">
+      <c r="S9" s="85">
         <v>1</v>
       </c>
       <c r="T9" s="30"/>
-      <c r="U9" s="108"/>
+      <c r="U9" s="91"/>
       <c r="V9" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="W9" s="108"/>
+      <c r="W9" s="91"/>
       <c r="X9" s="30"/>
-      <c r="Y9" s="108"/>
-      <c r="Z9" s="110"/>
-      <c r="AA9" s="108"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="63"/>
+      <c r="Y9" s="91"/>
+      <c r="Z9" s="93"/>
+      <c r="AA9" s="91"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A10" s="115"/>
       <c r="B10" s="37" t="s">
         <v>112</v>
       </c>
@@ -6464,22 +6710,22 @@
       <c r="R10" s="47">
         <v>1</v>
       </c>
-      <c r="S10" s="99">
+      <c r="S10" s="82">
         <v>1</v>
       </c>
-      <c r="T10" s="114"/>
-      <c r="U10" s="115"/>
-      <c r="V10" s="116" t="s">
-        <v>70</v>
-      </c>
-      <c r="W10" s="115"/>
-      <c r="X10" s="116"/>
-      <c r="Y10" s="115"/>
-      <c r="Z10" s="117"/>
-      <c r="AA10" s="115"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="63"/>
+      <c r="T10" s="97"/>
+      <c r="U10" s="98"/>
+      <c r="V10" s="99" t="s">
+        <v>70</v>
+      </c>
+      <c r="W10" s="98"/>
+      <c r="X10" s="99"/>
+      <c r="Y10" s="98"/>
+      <c r="Z10" s="100"/>
+      <c r="AA10" s="98"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A11" s="115"/>
       <c r="B11" s="4" t="s">
         <v>113</v>
       </c>
@@ -6517,20 +6763,20 @@
       <c r="R11" s="48">
         <v>1</v>
       </c>
-      <c r="S11" s="100">
+      <c r="S11" s="83">
         <v>1</v>
       </c>
       <c r="T11" s="30"/>
-      <c r="U11" s="108"/>
+      <c r="U11" s="91"/>
       <c r="V11" s="30"/>
-      <c r="W11" s="108"/>
+      <c r="W11" s="91"/>
       <c r="X11" s="30"/>
-      <c r="Y11" s="108"/>
-      <c r="Z11" s="110"/>
-      <c r="AA11" s="108"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="63"/>
+      <c r="Y11" s="91"/>
+      <c r="Z11" s="93"/>
+      <c r="AA11" s="91"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A12" s="115"/>
       <c r="B12" s="37" t="s">
         <v>114</v>
       </c>
@@ -6564,22 +6810,22 @@
       <c r="R12" s="47">
         <v>1</v>
       </c>
-      <c r="S12" s="99">
+      <c r="S12" s="82">
         <v>1</v>
       </c>
-      <c r="T12" s="114"/>
-      <c r="U12" s="115"/>
-      <c r="V12" s="116" t="s">
-        <v>70</v>
-      </c>
-      <c r="W12" s="115"/>
-      <c r="X12" s="116"/>
-      <c r="Y12" s="115"/>
-      <c r="Z12" s="117"/>
-      <c r="AA12" s="115"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="63"/>
+      <c r="T12" s="97"/>
+      <c r="U12" s="98"/>
+      <c r="V12" s="99" t="s">
+        <v>70</v>
+      </c>
+      <c r="W12" s="98"/>
+      <c r="X12" s="99"/>
+      <c r="Y12" s="98"/>
+      <c r="Z12" s="100"/>
+      <c r="AA12" s="98"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A13" s="115"/>
       <c r="B13" s="4" t="s">
         <v>115</v>
       </c>
@@ -6609,22 +6855,22 @@
       <c r="R13" s="48">
         <v>2</v>
       </c>
-      <c r="S13" s="100">
+      <c r="S13" s="83">
         <v>3</v>
       </c>
       <c r="T13" s="30"/>
-      <c r="U13" s="108" t="s">
+      <c r="U13" s="91" t="s">
         <v>70</v>
       </c>
       <c r="V13" s="30"/>
-      <c r="W13" s="108"/>
+      <c r="W13" s="91"/>
       <c r="X13" s="30"/>
-      <c r="Y13" s="108"/>
-      <c r="Z13" s="110"/>
-      <c r="AA13" s="108"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="63"/>
+      <c r="Y13" s="91"/>
+      <c r="Z13" s="93"/>
+      <c r="AA13" s="91"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A14" s="115"/>
       <c r="B14" s="37" t="s">
         <v>116</v>
       </c>
@@ -6658,22 +6904,22 @@
       <c r="R14" s="47">
         <v>2</v>
       </c>
-      <c r="S14" s="99">
+      <c r="S14" s="82">
         <v>3</v>
       </c>
-      <c r="T14" s="114"/>
-      <c r="U14" s="115" t="s">
-        <v>70</v>
-      </c>
-      <c r="V14" s="116"/>
-      <c r="W14" s="115"/>
-      <c r="X14" s="116"/>
-      <c r="Y14" s="115"/>
-      <c r="Z14" s="117"/>
-      <c r="AA14" s="115"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="63"/>
+      <c r="T14" s="97"/>
+      <c r="U14" s="98" t="s">
+        <v>70</v>
+      </c>
+      <c r="V14" s="99"/>
+      <c r="W14" s="98"/>
+      <c r="X14" s="99"/>
+      <c r="Y14" s="98"/>
+      <c r="Z14" s="100"/>
+      <c r="AA14" s="98"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A15" s="115"/>
       <c r="B15" s="4" t="s">
         <v>117</v>
       </c>
@@ -6703,20 +6949,20 @@
       <c r="R15" s="48">
         <v>2</v>
       </c>
-      <c r="S15" s="100">
+      <c r="S15" s="83">
         <v>3</v>
       </c>
       <c r="T15" s="30"/>
-      <c r="U15" s="108"/>
+      <c r="U15" s="91"/>
       <c r="V15" s="30"/>
-      <c r="W15" s="108"/>
+      <c r="W15" s="91"/>
       <c r="X15" s="30"/>
-      <c r="Y15" s="108"/>
-      <c r="Z15" s="110"/>
-      <c r="AA15" s="108"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="63"/>
+      <c r="Y15" s="91"/>
+      <c r="Z15" s="93"/>
+      <c r="AA15" s="91"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A16" s="115"/>
       <c r="B16" s="37" t="s">
         <v>118</v>
       </c>
@@ -6748,22 +6994,22 @@
       <c r="R16" s="47">
         <v>2</v>
       </c>
-      <c r="S16" s="99">
+      <c r="S16" s="82">
         <v>3</v>
       </c>
-      <c r="T16" s="114"/>
-      <c r="U16" s="115"/>
-      <c r="V16" s="116"/>
-      <c r="W16" s="115"/>
-      <c r="X16" s="116"/>
-      <c r="Y16" s="115"/>
-      <c r="Z16" s="117"/>
-      <c r="AA16" s="115" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A17" s="63"/>
+      <c r="T16" s="97"/>
+      <c r="U16" s="98"/>
+      <c r="V16" s="99"/>
+      <c r="W16" s="98"/>
+      <c r="X16" s="99"/>
+      <c r="Y16" s="98"/>
+      <c r="Z16" s="100"/>
+      <c r="AA16" s="98" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A17" s="115"/>
       <c r="B17" s="4" t="s">
         <v>119</v>
       </c>
@@ -6789,20 +7035,20 @@
       <c r="R17" s="48">
         <v>3</v>
       </c>
-      <c r="S17" s="100">
+      <c r="S17" s="83">
         <v>5</v>
       </c>
       <c r="T17" s="30"/>
-      <c r="U17" s="108"/>
+      <c r="U17" s="91"/>
       <c r="V17" s="30"/>
-      <c r="W17" s="108"/>
+      <c r="W17" s="91"/>
       <c r="X17" s="30"/>
-      <c r="Y17" s="108"/>
-      <c r="Z17" s="110"/>
-      <c r="AA17" s="108"/>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A18" s="63"/>
+      <c r="Y17" s="91"/>
+      <c r="Z17" s="93"/>
+      <c r="AA17" s="91"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A18" s="115"/>
       <c r="B18" s="37" t="s">
         <v>120</v>
       </c>
@@ -6830,20 +7076,20 @@
       <c r="R18" s="47">
         <v>5</v>
       </c>
-      <c r="S18" s="99">
+      <c r="S18" s="82">
         <v>8</v>
       </c>
-      <c r="T18" s="114"/>
-      <c r="U18" s="115"/>
-      <c r="V18" s="116"/>
-      <c r="W18" s="115"/>
-      <c r="X18" s="116"/>
-      <c r="Y18" s="115"/>
-      <c r="Z18" s="117"/>
-      <c r="AA18" s="115"/>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A19" s="63"/>
+      <c r="T18" s="97"/>
+      <c r="U18" s="98"/>
+      <c r="V18" s="99"/>
+      <c r="W18" s="98"/>
+      <c r="X18" s="99"/>
+      <c r="Y18" s="98"/>
+      <c r="Z18" s="100"/>
+      <c r="AA18" s="98"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A19" s="115"/>
       <c r="B19" s="4" t="s">
         <v>121</v>
       </c>
@@ -6873,16 +7119,16 @@
         <v>9</v>
       </c>
       <c r="T19" s="30"/>
-      <c r="U19" s="108"/>
+      <c r="U19" s="91"/>
       <c r="V19" s="30"/>
-      <c r="W19" s="108"/>
+      <c r="W19" s="91"/>
       <c r="X19" s="30"/>
-      <c r="Y19" s="108"/>
-      <c r="Z19" s="110"/>
-      <c r="AA19" s="108"/>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A20" s="64"/>
+      <c r="Y19" s="91"/>
+      <c r="Z19" s="93"/>
+      <c r="AA19" s="91"/>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A20" s="116"/>
       <c r="B20" s="7" t="s">
         <v>122</v>
       </c>
@@ -6908,22 +7154,22 @@
       <c r="R20" s="7">
         <v>8</v>
       </c>
-      <c r="S20" s="101">
+      <c r="S20" s="84">
         <v>12</v>
       </c>
-      <c r="T20" s="109"/>
+      <c r="T20" s="92"/>
       <c r="U20" s="19"/>
       <c r="V20" s="31"/>
       <c r="W20" s="19"/>
       <c r="X20" s="31"/>
       <c r="Y20" s="19"/>
-      <c r="Z20" s="112"/>
+      <c r="Z20" s="95"/>
       <c r="AA20" s="19" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A21" s="65" t="s">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A21" s="117" t="s">
         <v>139</v>
       </c>
       <c r="B21" s="13" t="s">
@@ -6969,24 +7215,24 @@
       <c r="R21" s="46">
         <v>1</v>
       </c>
-      <c r="S21" s="102">
+      <c r="S21" s="85">
         <v>1</v>
       </c>
       <c r="T21" s="30"/>
-      <c r="U21" s="108"/>
+      <c r="U21" s="91"/>
       <c r="V21" s="30"/>
-      <c r="W21" s="108"/>
+      <c r="W21" s="91"/>
       <c r="X21" s="30"/>
-      <c r="Y21" s="108" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z21" s="110" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA21" s="108"/>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A22" s="63"/>
+      <c r="Y21" s="91" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z21" s="93" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA21" s="91"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A22" s="115"/>
       <c r="B22" s="37" t="s">
         <v>124</v>
       </c>
@@ -7026,24 +7272,24 @@
       <c r="R22" s="47">
         <v>1</v>
       </c>
-      <c r="S22" s="99">
+      <c r="S22" s="82">
         <v>1</v>
       </c>
-      <c r="T22" s="114"/>
-      <c r="U22" s="115"/>
-      <c r="V22" s="116"/>
-      <c r="W22" s="115"/>
-      <c r="X22" s="116"/>
-      <c r="Y22" s="115" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z22" s="117" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA22" s="115"/>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A23" s="63"/>
+      <c r="T22" s="97"/>
+      <c r="U22" s="98"/>
+      <c r="V22" s="99"/>
+      <c r="W22" s="98"/>
+      <c r="X22" s="99"/>
+      <c r="Y22" s="98" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z22" s="100" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA22" s="98"/>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A23" s="115"/>
       <c r="B23" s="4" t="s">
         <v>125</v>
       </c>
@@ -7083,24 +7329,24 @@
       <c r="R23" s="48">
         <v>1</v>
       </c>
-      <c r="S23" s="100">
+      <c r="S23" s="83">
         <v>1</v>
       </c>
       <c r="T23" s="30"/>
-      <c r="U23" s="108"/>
+      <c r="U23" s="91"/>
       <c r="V23" s="30"/>
-      <c r="W23" s="108"/>
+      <c r="W23" s="91"/>
       <c r="X23" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="Y23" s="108"/>
-      <c r="Z23" s="110" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA23" s="108"/>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A24" s="63"/>
+      <c r="Y23" s="91"/>
+      <c r="Z23" s="93" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA23" s="91"/>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A24" s="115"/>
       <c r="B24" s="37" t="s">
         <v>126</v>
       </c>
@@ -7140,24 +7386,24 @@
       <c r="R24" s="47">
         <v>1</v>
       </c>
-      <c r="S24" s="99">
+      <c r="S24" s="82">
         <v>1</v>
       </c>
-      <c r="T24" s="114"/>
-      <c r="U24" s="115"/>
-      <c r="V24" s="116"/>
-      <c r="W24" s="115"/>
-      <c r="X24" s="116" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y24" s="115"/>
-      <c r="Z24" s="117" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA24" s="115"/>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A25" s="63"/>
+      <c r="T24" s="97"/>
+      <c r="U24" s="98"/>
+      <c r="V24" s="99"/>
+      <c r="W24" s="98"/>
+      <c r="X24" s="99" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y24" s="98"/>
+      <c r="Z24" s="100" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA24" s="98"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A25" s="115"/>
       <c r="B25" s="4" t="s">
         <v>127</v>
       </c>
@@ -7193,24 +7439,24 @@
       <c r="R25" s="48">
         <v>3</v>
       </c>
-      <c r="S25" s="100">
+      <c r="S25" s="83">
         <v>5</v>
       </c>
       <c r="T25" s="30"/>
-      <c r="U25" s="108"/>
+      <c r="U25" s="91"/>
       <c r="V25" s="30"/>
-      <c r="W25" s="108"/>
+      <c r="W25" s="91"/>
       <c r="X25" s="30"/>
-      <c r="Y25" s="108" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z25" s="110" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA25" s="108"/>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A26" s="63"/>
+      <c r="Y25" s="91" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z25" s="93" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA25" s="91"/>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A26" s="115"/>
       <c r="B26" s="37" t="s">
         <v>129</v>
       </c>
@@ -7242,24 +7488,24 @@
       <c r="R26" s="47">
         <v>3</v>
       </c>
-      <c r="S26" s="99">
+      <c r="S26" s="82">
         <v>5</v>
       </c>
-      <c r="T26" s="114"/>
-      <c r="U26" s="115"/>
-      <c r="V26" s="116"/>
-      <c r="W26" s="115"/>
-      <c r="X26" s="116"/>
-      <c r="Y26" s="115" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z26" s="117" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA26" s="115"/>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A27" s="63"/>
+      <c r="T26" s="97"/>
+      <c r="U26" s="98"/>
+      <c r="V26" s="99"/>
+      <c r="W26" s="98"/>
+      <c r="X26" s="99"/>
+      <c r="Y26" s="98" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z26" s="100" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA26" s="98"/>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A27" s="115"/>
       <c r="B27" s="8" t="s">
         <v>141</v>
       </c>
@@ -7291,24 +7537,24 @@
       <c r="R27" s="48">
         <v>3</v>
       </c>
-      <c r="S27" s="100">
+      <c r="S27" s="83">
         <v>5</v>
       </c>
       <c r="T27" s="30"/>
-      <c r="U27" s="108"/>
+      <c r="U27" s="91"/>
       <c r="V27" s="30"/>
-      <c r="W27" s="108"/>
+      <c r="W27" s="91"/>
       <c r="X27" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="Y27" s="108"/>
-      <c r="Z27" s="110" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA27" s="108"/>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A28" s="63"/>
+      <c r="Y27" s="91"/>
+      <c r="Z27" s="93" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA27" s="91"/>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A28" s="115"/>
       <c r="B28" s="37" t="s">
         <v>128</v>
       </c>
@@ -7340,24 +7586,24 @@
       <c r="R28" s="47">
         <v>3</v>
       </c>
-      <c r="S28" s="99">
+      <c r="S28" s="82">
         <v>5</v>
       </c>
-      <c r="T28" s="114"/>
-      <c r="U28" s="115"/>
-      <c r="V28" s="116"/>
-      <c r="W28" s="115"/>
-      <c r="X28" s="116" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y28" s="115"/>
-      <c r="Z28" s="117" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA28" s="115"/>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A29" s="63"/>
+      <c r="T28" s="97"/>
+      <c r="U28" s="98"/>
+      <c r="V28" s="99"/>
+      <c r="W28" s="98"/>
+      <c r="X28" s="99" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y28" s="98"/>
+      <c r="Z28" s="100" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA28" s="98"/>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A29" s="115"/>
       <c r="B29" s="41" t="s">
         <v>131</v>
       </c>
@@ -7385,24 +7631,24 @@
       <c r="R29" s="48">
         <v>6</v>
       </c>
-      <c r="S29" s="100">
+      <c r="S29" s="83">
         <v>9</v>
       </c>
       <c r="T29" s="30"/>
-      <c r="U29" s="108"/>
+      <c r="U29" s="91"/>
       <c r="V29" s="30"/>
-      <c r="W29" s="108"/>
+      <c r="W29" s="91"/>
       <c r="X29" s="30"/>
-      <c r="Y29" s="108" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z29" s="110" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA29" s="108"/>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A30" s="63"/>
+      <c r="Y29" s="91" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z29" s="93" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA29" s="91"/>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A30" s="115"/>
       <c r="B30" s="37" t="s">
         <v>130</v>
       </c>
@@ -7430,24 +7676,24 @@
       <c r="R30" s="47">
         <v>6</v>
       </c>
-      <c r="S30" s="99">
+      <c r="S30" s="82">
         <v>9</v>
       </c>
-      <c r="T30" s="114"/>
-      <c r="U30" s="115"/>
-      <c r="V30" s="116"/>
-      <c r="W30" s="115"/>
-      <c r="X30" s="116"/>
-      <c r="Y30" s="115" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z30" s="117" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA30" s="115"/>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A31" s="63"/>
+      <c r="T30" s="97"/>
+      <c r="U30" s="98"/>
+      <c r="V30" s="99"/>
+      <c r="W30" s="98"/>
+      <c r="X30" s="99"/>
+      <c r="Y30" s="98" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z30" s="100" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA30" s="98"/>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A31" s="115"/>
       <c r="B31" s="41" t="s">
         <v>133</v>
       </c>
@@ -7475,24 +7721,24 @@
       <c r="R31" s="48">
         <v>6</v>
       </c>
-      <c r="S31" s="100">
+      <c r="S31" s="83">
         <v>9</v>
       </c>
       <c r="T31" s="30"/>
-      <c r="U31" s="108"/>
+      <c r="U31" s="91"/>
       <c r="V31" s="30"/>
-      <c r="W31" s="108"/>
+      <c r="W31" s="91"/>
       <c r="X31" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="Y31" s="108"/>
-      <c r="Z31" s="110" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA31" s="108"/>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A32" s="63"/>
+      <c r="Y31" s="91"/>
+      <c r="Z31" s="93" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA31" s="91"/>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A32" s="115"/>
       <c r="B32" s="37" t="s">
         <v>132</v>
       </c>
@@ -7518,24 +7764,24 @@
       <c r="R32" s="47">
         <v>6</v>
       </c>
-      <c r="S32" s="99">
+      <c r="S32" s="82">
         <v>9</v>
       </c>
-      <c r="T32" s="114"/>
-      <c r="U32" s="115"/>
-      <c r="V32" s="116"/>
-      <c r="W32" s="115"/>
-      <c r="X32" s="116" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y32" s="115"/>
-      <c r="Z32" s="117" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA32" s="115"/>
-    </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A33" s="63"/>
+      <c r="T32" s="97"/>
+      <c r="U32" s="98"/>
+      <c r="V32" s="99"/>
+      <c r="W32" s="98"/>
+      <c r="X32" s="99" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y32" s="98"/>
+      <c r="Z32" s="100" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA32" s="98"/>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A33" s="115"/>
       <c r="B33" s="41" t="s">
         <v>134</v>
       </c>
@@ -7559,24 +7805,24 @@
       <c r="R33" s="48">
         <v>9</v>
       </c>
-      <c r="S33" s="103" t="s">
+      <c r="S33" s="86" t="s">
         <v>24</v>
       </c>
       <c r="T33" s="30"/>
-      <c r="U33" s="108"/>
+      <c r="U33" s="91"/>
       <c r="V33" s="30"/>
-      <c r="W33" s="108"/>
+      <c r="W33" s="91"/>
       <c r="X33" s="30"/>
-      <c r="Y33" s="108"/>
-      <c r="Z33" s="110" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA33" s="108" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A34" s="63"/>
+      <c r="Y33" s="91"/>
+      <c r="Z33" s="93" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA33" s="91" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A34" s="115"/>
       <c r="B34" s="37" t="s">
         <v>135</v>
       </c>
@@ -7600,24 +7846,24 @@
       <c r="R34" s="47">
         <v>9</v>
       </c>
-      <c r="S34" s="104" t="s">
+      <c r="S34" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="T34" s="114"/>
-      <c r="U34" s="115"/>
-      <c r="V34" s="116"/>
-      <c r="W34" s="115"/>
-      <c r="X34" s="116"/>
-      <c r="Y34" s="115"/>
-      <c r="Z34" s="117" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA34" s="115" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A35" s="63"/>
+      <c r="T34" s="97"/>
+      <c r="U34" s="98"/>
+      <c r="V34" s="99"/>
+      <c r="W34" s="98"/>
+      <c r="X34" s="99"/>
+      <c r="Y34" s="98"/>
+      <c r="Z34" s="100" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA34" s="98" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A35" s="115"/>
       <c r="B35" s="4" t="s">
         <v>136</v>
       </c>
@@ -7641,24 +7887,24 @@
       <c r="R35" s="8">
         <v>9</v>
       </c>
-      <c r="S35" s="105" t="s">
+      <c r="S35" s="88" t="s">
         <v>24</v>
       </c>
       <c r="T35" s="30"/>
-      <c r="U35" s="108"/>
+      <c r="U35" s="91"/>
       <c r="V35" s="30"/>
-      <c r="W35" s="108"/>
+      <c r="W35" s="91"/>
       <c r="X35" s="30"/>
-      <c r="Y35" s="108"/>
-      <c r="Z35" s="110" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA35" s="108" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A36" s="64"/>
+      <c r="Y35" s="91"/>
+      <c r="Z35" s="93" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA35" s="91" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A36" s="116"/>
       <c r="B36" s="7" t="s">
         <v>137</v>
       </c>
@@ -7682,24 +7928,24 @@
       <c r="R36" s="7">
         <v>9</v>
       </c>
-      <c r="S36" s="106" t="s">
+      <c r="S36" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="T36" s="109"/>
+      <c r="T36" s="92"/>
       <c r="U36" s="19"/>
       <c r="V36" s="31"/>
       <c r="W36" s="19"/>
       <c r="X36" s="31"/>
       <c r="Y36" s="19"/>
-      <c r="Z36" s="112" t="s">
+      <c r="Z36" s="95" t="s">
         <v>70</v>
       </c>
       <c r="AA36" s="19" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A37" s="65" t="s">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A37" s="117" t="s">
         <v>140</v>
       </c>
       <c r="B37" s="13" t="s">
@@ -7729,22 +7975,22 @@
       <c r="R37" s="46">
         <v>8</v>
       </c>
-      <c r="S37" s="102">
+      <c r="S37" s="85">
         <v>12</v>
       </c>
       <c r="T37" s="30"/>
-      <c r="U37" s="108"/>
+      <c r="U37" s="91"/>
       <c r="V37" s="30"/>
-      <c r="W37" s="108" t="s">
+      <c r="W37" s="91" t="s">
         <v>70</v>
       </c>
       <c r="X37" s="30"/>
-      <c r="Y37" s="108"/>
-      <c r="Z37" s="110"/>
-      <c r="AA37" s="108"/>
-    </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A38" s="63"/>
+      <c r="Y37" s="91"/>
+      <c r="Z37" s="93"/>
+      <c r="AA37" s="91"/>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A38" s="115"/>
       <c r="B38" s="37" t="s">
         <v>62</v>
       </c>
@@ -7770,22 +8016,22 @@
       <c r="R38" s="47">
         <v>5</v>
       </c>
-      <c r="S38" s="99">
+      <c r="S38" s="82">
         <v>8</v>
       </c>
-      <c r="T38" s="114"/>
-      <c r="U38" s="115"/>
-      <c r="V38" s="116"/>
-      <c r="W38" s="115" t="s">
-        <v>70</v>
-      </c>
-      <c r="X38" s="116"/>
-      <c r="Y38" s="115"/>
-      <c r="Z38" s="117"/>
-      <c r="AA38" s="115"/>
-    </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A39" s="63"/>
+      <c r="T38" s="97"/>
+      <c r="U38" s="98"/>
+      <c r="V38" s="99"/>
+      <c r="W38" s="98" t="s">
+        <v>70</v>
+      </c>
+      <c r="X38" s="99"/>
+      <c r="Y38" s="98"/>
+      <c r="Z38" s="100"/>
+      <c r="AA38" s="98"/>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A39" s="115"/>
       <c r="B39" s="4" t="s">
         <v>63</v>
       </c>
@@ -7813,22 +8059,22 @@
       <c r="R39" s="48">
         <v>3</v>
       </c>
-      <c r="S39" s="100">
+      <c r="S39" s="83">
         <v>5</v>
       </c>
       <c r="T39" s="30"/>
-      <c r="U39" s="108"/>
+      <c r="U39" s="91"/>
       <c r="V39" s="30"/>
-      <c r="W39" s="108" t="s">
+      <c r="W39" s="91" t="s">
         <v>70</v>
       </c>
       <c r="X39" s="30"/>
-      <c r="Y39" s="108"/>
-      <c r="Z39" s="110"/>
-      <c r="AA39" s="108"/>
-    </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A40" s="63"/>
+      <c r="Y39" s="91"/>
+      <c r="Z39" s="93"/>
+      <c r="AA39" s="91"/>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A40" s="115"/>
       <c r="B40" s="37" t="s">
         <v>64</v>
       </c>
@@ -7856,22 +8102,22 @@
       <c r="R40" s="47">
         <v>4</v>
       </c>
-      <c r="S40" s="99">
+      <c r="S40" s="82">
         <v>6</v>
       </c>
-      <c r="T40" s="114"/>
-      <c r="U40" s="115"/>
-      <c r="V40" s="116"/>
-      <c r="W40" s="115" t="s">
-        <v>70</v>
-      </c>
-      <c r="X40" s="116"/>
-      <c r="Y40" s="115"/>
-      <c r="Z40" s="117"/>
-      <c r="AA40" s="115"/>
-    </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A41" s="63"/>
+      <c r="T40" s="97"/>
+      <c r="U40" s="98"/>
+      <c r="V40" s="99"/>
+      <c r="W40" s="98" t="s">
+        <v>70</v>
+      </c>
+      <c r="X40" s="99"/>
+      <c r="Y40" s="98"/>
+      <c r="Z40" s="100"/>
+      <c r="AA40" s="98"/>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A41" s="115"/>
       <c r="B41" s="4" t="s">
         <v>65</v>
       </c>
@@ -7899,22 +8145,22 @@
       <c r="R41" s="48">
         <v>3</v>
       </c>
-      <c r="S41" s="100">
+      <c r="S41" s="83">
         <v>5</v>
       </c>
       <c r="T41" s="30"/>
-      <c r="U41" s="108"/>
+      <c r="U41" s="91"/>
       <c r="V41" s="30"/>
-      <c r="W41" s="108" t="s">
+      <c r="W41" s="91" t="s">
         <v>70</v>
       </c>
       <c r="X41" s="30"/>
-      <c r="Y41" s="108"/>
-      <c r="Z41" s="110"/>
-      <c r="AA41" s="108"/>
-    </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A42" s="63"/>
+      <c r="Y41" s="91"/>
+      <c r="Z41" s="93"/>
+      <c r="AA41" s="91"/>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A42" s="115"/>
       <c r="B42" s="37" t="s">
         <v>54</v>
       </c>
@@ -7940,22 +8186,22 @@
       <c r="R42" s="47">
         <v>4</v>
       </c>
-      <c r="S42" s="99">
+      <c r="S42" s="82">
         <v>6</v>
       </c>
-      <c r="T42" s="114"/>
-      <c r="U42" s="115"/>
-      <c r="V42" s="116"/>
-      <c r="W42" s="115" t="s">
-        <v>70</v>
-      </c>
-      <c r="X42" s="116"/>
-      <c r="Y42" s="115"/>
-      <c r="Z42" s="117"/>
-      <c r="AA42" s="115"/>
-    </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A43" s="63"/>
+      <c r="T42" s="97"/>
+      <c r="U42" s="98"/>
+      <c r="V42" s="99"/>
+      <c r="W42" s="98" t="s">
+        <v>70</v>
+      </c>
+      <c r="X42" s="99"/>
+      <c r="Y42" s="98"/>
+      <c r="Z42" s="100"/>
+      <c r="AA42" s="98"/>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A43" s="115"/>
       <c r="B43" s="4" t="s">
         <v>66</v>
       </c>
@@ -7979,22 +8225,22 @@
       <c r="R43" s="48">
         <v>9</v>
       </c>
-      <c r="S43" s="103" t="s">
+      <c r="S43" s="86" t="s">
         <v>24</v>
       </c>
       <c r="T43" s="30"/>
-      <c r="U43" s="108"/>
+      <c r="U43" s="91"/>
       <c r="V43" s="30"/>
-      <c r="W43" s="108" t="s">
+      <c r="W43" s="91" t="s">
         <v>70</v>
       </c>
       <c r="X43" s="30"/>
-      <c r="Y43" s="108"/>
-      <c r="Z43" s="110"/>
-      <c r="AA43" s="108"/>
-    </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A44" s="63"/>
+      <c r="Y43" s="91"/>
+      <c r="Z43" s="93"/>
+      <c r="AA43" s="91"/>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A44" s="115"/>
       <c r="B44" s="37" t="s">
         <v>67</v>
       </c>
@@ -8024,22 +8270,22 @@
       <c r="R44" s="47">
         <v>4</v>
       </c>
-      <c r="S44" s="99">
+      <c r="S44" s="82">
         <v>6</v>
       </c>
-      <c r="T44" s="114"/>
-      <c r="U44" s="115"/>
-      <c r="V44" s="116"/>
-      <c r="W44" s="115" t="s">
-        <v>70</v>
-      </c>
-      <c r="X44" s="116"/>
-      <c r="Y44" s="115"/>
-      <c r="Z44" s="117"/>
-      <c r="AA44" s="115"/>
-    </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A45" s="63"/>
+      <c r="T44" s="97"/>
+      <c r="U44" s="98"/>
+      <c r="V44" s="99"/>
+      <c r="W44" s="98" t="s">
+        <v>70</v>
+      </c>
+      <c r="X44" s="99"/>
+      <c r="Y44" s="98"/>
+      <c r="Z44" s="100"/>
+      <c r="AA44" s="98"/>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A45" s="115"/>
       <c r="B45" s="4" t="s">
         <v>68</v>
       </c>
@@ -8071,18 +8317,18 @@
         <v>5</v>
       </c>
       <c r="T45" s="30"/>
-      <c r="U45" s="108"/>
+      <c r="U45" s="91"/>
       <c r="V45" s="30"/>
-      <c r="W45" s="108" t="s">
+      <c r="W45" s="91" t="s">
         <v>70</v>
       </c>
       <c r="X45" s="30"/>
-      <c r="Y45" s="108"/>
-      <c r="Z45" s="110"/>
-      <c r="AA45" s="108"/>
-    </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A46" s="64"/>
+      <c r="Y45" s="91"/>
+      <c r="Z45" s="93"/>
+      <c r="AA45" s="91"/>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A46" s="116"/>
       <c r="B46" s="7" t="s">
         <v>53</v>
       </c>
@@ -8110,21 +8356,21 @@
       <c r="R46" s="7">
         <v>5</v>
       </c>
-      <c r="S46" s="101">
+      <c r="S46" s="84">
         <v>8</v>
       </c>
-      <c r="T46" s="111"/>
+      <c r="T46" s="94"/>
       <c r="U46" s="19"/>
-      <c r="V46" s="112"/>
+      <c r="V46" s="95"/>
       <c r="W46" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="X46" s="112"/>
+      <c r="X46" s="95"/>
       <c r="Y46" s="19"/>
-      <c r="Z46" s="112"/>
+      <c r="Z46" s="95"/>
       <c r="AA46" s="19"/>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B47" s="32" t="s">
         <v>142</v>
       </c>
@@ -8180,12 +8426,12 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="P47" s="113">
+      <c r="P47" s="96">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="Q47" s="17"/>
-      <c r="S47" s="102"/>
+      <c r="S47" s="85"/>
       <c r="T47">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -8238,17 +8484,19 @@
     <sheetView workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
-    <col min="4" max="4" width="28.28515625" customWidth="1"/>
-    <col min="5" max="5" width="37.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" customWidth="1"/>
+    <col min="4" max="4" width="28.33203125" customWidth="1"/>
+    <col min="5" max="5" width="37.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
@@ -8265,7 +8513,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -8282,7 +8530,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="34" t="s">
         <v>9</v>
       </c>
@@ -8299,7 +8547,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -8316,7 +8564,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="34" t="s">
         <v>11</v>
       </c>
@@ -8333,7 +8581,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -8350,7 +8598,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="34" t="s">
         <v>13</v>
       </c>
@@ -8367,7 +8615,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -8384,7 +8632,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="34" t="s">
         <v>15</v>
       </c>
@@ -8401,7 +8649,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -8418,7 +8666,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="34" t="s">
         <v>17</v>
       </c>
@@ -8435,7 +8683,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
@@ -8452,7 +8700,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="34" t="s">
         <v>19</v>
       </c>
@@ -8469,7 +8717,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -8486,7 +8734,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="34" t="s">
         <v>21</v>
       </c>
@@ -8501,6 +8749,395 @@
       </c>
       <c r="E15" s="17" t="s">
         <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C44F99E8-7B20-4B6C-AE8D-75A9EC0D9551}">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
+    <sheetView tabSelected="1" workbookViewId="2">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="9.88671875" customWidth="1"/>
+    <col min="3" max="3" width="100.21875" customWidth="1"/>
+    <col min="4" max="4" width="100.6640625" customWidth="1"/>
+    <col min="5" max="5" width="91.88671875" customWidth="1"/>
+    <col min="6" max="6" width="106.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C2" t="s">
+        <v>400</v>
+      </c>
+      <c r="D2" t="s">
+        <v>402</v>
+      </c>
+      <c r="E2" t="s">
+        <v>404</v>
+      </c>
+      <c r="F2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>428</v>
+      </c>
+      <c r="D3" t="s">
+        <v>429</v>
+      </c>
+      <c r="E3" t="s">
+        <v>437</v>
+      </c>
+      <c r="F3" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>457</v>
+      </c>
+      <c r="D4" t="s">
+        <v>458</v>
+      </c>
+      <c r="E4" t="s">
+        <v>459</v>
+      </c>
+      <c r="F4" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>427</v>
+      </c>
+      <c r="D5" t="s">
+        <v>431</v>
+      </c>
+      <c r="E5" t="s">
+        <v>463</v>
+      </c>
+      <c r="F5" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>444</v>
+      </c>
+      <c r="D6" t="s">
+        <v>445</v>
+      </c>
+      <c r="E6" t="s">
+        <v>446</v>
+      </c>
+      <c r="F6" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>435</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>420</v>
+      </c>
+      <c r="D7" t="s">
+        <v>418</v>
+      </c>
+      <c r="E7" t="s">
+        <v>416</v>
+      </c>
+      <c r="F7" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>453</v>
+      </c>
+      <c r="D8" t="s">
+        <v>454</v>
+      </c>
+      <c r="E8" t="s">
+        <v>456</v>
+      </c>
+      <c r="F8" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="8"/>
+      <c r="C10" t="s">
+        <v>401</v>
+      </c>
+      <c r="D10" t="s">
+        <v>403</v>
+      </c>
+      <c r="E10" t="s">
+        <v>405</v>
+      </c>
+      <c r="F10" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>440</v>
+      </c>
+      <c r="D11" t="s">
+        <v>441</v>
+      </c>
+      <c r="E11" t="s">
+        <v>442</v>
+      </c>
+      <c r="F11" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>448</v>
+      </c>
+      <c r="D12" t="s">
+        <v>451</v>
+      </c>
+      <c r="E12" t="s">
+        <v>449</v>
+      </c>
+      <c r="F12" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>435</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>413</v>
+      </c>
+      <c r="D13" t="s">
+        <v>414</v>
+      </c>
+      <c r="E13" t="s">
+        <v>426</v>
+      </c>
+      <c r="F13" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>461</v>
+      </c>
+      <c r="D14" t="s">
+        <v>462</v>
+      </c>
+      <c r="E14" t="s">
+        <v>464</v>
+      </c>
+      <c r="F14" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>435</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>411</v>
+      </c>
+      <c r="D15" t="s">
+        <v>415</v>
+      </c>
+      <c r="E15" t="s">
+        <v>425</v>
+      </c>
+      <c r="F15" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="E16" s="61" t="s">
+        <v>436</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="8"/>
+      <c r="C17" t="s">
+        <v>408</v>
+      </c>
+      <c r="D17" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>466</v>
+      </c>
+      <c r="D18" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>435</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>468</v>
+      </c>
+      <c r="D19" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>471</v>
+      </c>
+      <c r="D20" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>473</v>
+      </c>
+      <c r="D21" t="s">
+        <v>470</v>
       </c>
     </row>
   </sheetData>

--- a/elementalSword/board/Tables.xlsx
+++ b/elementalSword/board/Tables.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samir.farooq\Documents\GitHub\Python-Scripts\elementalSword\board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A369109-4273-4C68-AF0F-EB2A940D9948}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32DADA86-B1B4-43E4-9BB6-70633AD8F8C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3276" yWindow="3396" windowWidth="13836" windowHeight="7176" firstSheet="3" activeTab="6" xr2:uid="{DC4BCEDC-BB47-47B4-822F-D357A9FBC158}"/>
-    <workbookView visibility="hidden" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="6" xr2:uid="{BE33DB70-26DA-4DA6-B32B-E004C93227E9}"/>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="8" xr2:uid="{172ED6DA-A762-4758-8CA4-3B66C15DE9E5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="6" xr2:uid="{DC4BCEDC-BB47-47B4-822F-D357A9FBC158}"/>
+    <workbookView visibility="hidden" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="6" xr2:uid="{BE33DB70-26DA-4DA6-B32B-E004C93227E9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="8" xr2:uid="{172ED6DA-A762-4758-8CA4-3B66C15DE9E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Encounters" sheetId="8" r:id="rId1"/>
@@ -26,7 +26,6 @@
     <sheet name="Techniques" sheetId="13" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1977,20 +1976,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -2326,17 +2325,17 @@
     <sheetView workbookViewId="1"/>
     <sheetView workbookViewId="2"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>182</v>
       </c>
@@ -2356,7 +2355,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>183</v>
       </c>
@@ -2376,7 +2375,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>81</v>
       </c>
@@ -2396,7 +2395,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="101" t="s">
         <v>194</v>
       </c>
@@ -2416,7 +2415,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="101"/>
       <c r="B5" s="17" t="s">
         <v>196</v>
@@ -2434,7 +2433,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="101"/>
       <c r="B6" t="s">
         <v>198</v>
@@ -2452,7 +2451,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="101"/>
       <c r="B7" s="17" t="s">
         <v>198</v>
@@ -2470,7 +2469,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>206</v>
       </c>
@@ -2490,7 +2489,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>211</v>
       </c>
@@ -2510,7 +2509,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>217</v>
       </c>
@@ -2530,7 +2529,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>218</v>
       </c>
@@ -2550,7 +2549,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>219</v>
       </c>
@@ -2570,7 +2569,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>228</v>
       </c>
@@ -2590,7 +2589,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>234</v>
       </c>
@@ -2610,7 +2609,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>41</v>
       </c>
@@ -2630,7 +2629,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>40</v>
       </c>
@@ -2650,7 +2649,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="60" t="s">
         <v>238</v>
       </c>
@@ -2674,15 +2673,15 @@
     <sheetView workbookViewId="1"/>
     <sheetView workbookViewId="2"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.109375" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="102" t="s">
         <v>6</v>
@@ -2699,7 +2698,7 @@
       </c>
       <c r="I1" s="104"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -2731,7 +2730,7 @@
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
         <v>3</v>
       </c>
@@ -2760,7 +2759,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -2789,7 +2788,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
         <v>10</v>
       </c>
@@ -2818,7 +2817,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -2847,7 +2846,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="34" t="s">
         <v>12</v>
       </c>
@@ -2876,7 +2875,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -2905,7 +2904,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
         <v>14</v>
       </c>
@@ -2934,7 +2933,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -2963,7 +2962,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="34" t="s">
         <v>16</v>
       </c>
@@ -2992,7 +2991,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
@@ -3021,7 +3020,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="34" t="s">
         <v>18</v>
       </c>
@@ -3050,7 +3049,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
@@ -3079,7 +3078,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="34" t="s">
         <v>20</v>
       </c>
@@ -3108,7 +3107,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
@@ -3137,7 +3136,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>32</v>
       </c>
@@ -3154,7 +3153,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>103</v>
       </c>
@@ -3194,20 +3193,20 @@
     <sheetView workbookViewId="1"/>
     <sheetView workbookViewId="2"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.88671875" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="18.109375" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" customWidth="1"/>
-    <col min="6" max="6" width="33.109375" customWidth="1"/>
-    <col min="7" max="7" width="75.5546875" customWidth="1"/>
-    <col min="8" max="8" width="24.5546875" customWidth="1"/>
-    <col min="9" max="9" width="20.109375" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" customWidth="1"/>
+    <col min="6" max="6" width="33.140625" customWidth="1"/>
+    <col min="7" max="7" width="75.5703125" customWidth="1"/>
+    <col min="8" max="8" width="24.5703125" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
@@ -3230,7 +3229,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="105">
         <v>1</v>
       </c>
@@ -3253,7 +3252,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="106"/>
       <c r="B3" s="72">
         <v>2</v>
@@ -3274,7 +3273,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="106"/>
       <c r="B4" s="55">
         <v>3</v>
@@ -3295,7 +3294,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="106"/>
       <c r="B5" s="72">
         <v>4</v>
@@ -3316,7 +3315,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="106"/>
       <c r="B6" s="55">
         <v>5</v>
@@ -3337,7 +3336,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="106"/>
       <c r="B7" s="72">
         <v>6</v>
@@ -3358,7 +3357,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="106"/>
       <c r="B8" s="55">
         <v>7</v>
@@ -3379,7 +3378,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A9" s="107"/>
       <c r="B9" s="76">
         <v>8</v>
@@ -3400,7 +3399,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A10" s="105">
         <v>2</v>
       </c>
@@ -3421,7 +3420,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A11" s="106"/>
       <c r="B11" s="72">
         <v>2</v>
@@ -3440,7 +3439,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A12" s="106"/>
       <c r="B12" s="55">
         <v>3</v>
@@ -3459,7 +3458,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="106"/>
       <c r="B13" s="72">
         <v>4</v>
@@ -3478,7 +3477,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="106"/>
       <c r="B14" s="55">
         <v>5</v>
@@ -3499,7 +3498,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A15" s="106"/>
       <c r="B15" s="72">
         <v>6</v>
@@ -3520,7 +3519,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="106"/>
       <c r="B16" s="55">
         <v>7</v>
@@ -3541,7 +3540,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A17" s="107"/>
       <c r="B17" s="76">
         <v>8</v>
@@ -3562,7 +3561,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A18" s="105">
         <v>3</v>
       </c>
@@ -3585,7 +3584,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="106"/>
       <c r="B19" s="72">
         <v>2</v>
@@ -3606,7 +3605,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A20" s="106"/>
       <c r="B20" s="55">
         <v>3</v>
@@ -3627,7 +3626,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A21" s="106"/>
       <c r="B21" s="72">
         <v>4</v>
@@ -3648,7 +3647,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A22" s="106"/>
       <c r="B22" s="55">
         <v>5</v>
@@ -3669,7 +3668,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A23" s="106"/>
       <c r="B23" s="72">
         <v>6</v>
@@ -3690,7 +3689,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A24" s="106"/>
       <c r="B24" s="55">
         <v>7</v>
@@ -3711,7 +3710,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="107"/>
       <c r="B25" s="76">
         <v>8</v>
@@ -3732,7 +3731,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A26" s="105">
         <v>4</v>
       </c>
@@ -3755,7 +3754,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="27.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="27.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="106"/>
       <c r="B27" s="72">
         <v>2</v>
@@ -3776,7 +3775,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A28" s="106"/>
       <c r="B28" s="55">
         <v>3</v>
@@ -3795,7 +3794,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="23.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="106"/>
       <c r="B29" s="72">
         <v>4</v>
@@ -3816,7 +3815,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="106"/>
       <c r="B30" s="55">
         <v>5</v>
@@ -3837,7 +3836,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A31" s="106"/>
       <c r="B31" s="72">
         <v>6</v>
@@ -3858,7 +3857,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A32" s="106"/>
       <c r="B32" s="55">
         <v>7</v>
@@ -3879,7 +3878,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A33" s="107"/>
       <c r="B33" s="76">
         <v>8</v>
@@ -3900,7 +3899,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="108">
         <v>5</v>
       </c>
@@ -3923,7 +3922,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="108"/>
       <c r="B35" s="79">
         <v>2</v>
@@ -3944,7 +3943,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A36" s="108"/>
       <c r="B36" s="57">
         <v>3</v>
@@ -3965,7 +3964,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A37" s="108"/>
       <c r="B37" s="79">
         <v>4</v>
@@ -3986,7 +3985,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A38" s="108"/>
       <c r="B38" s="57">
         <v>5</v>
@@ -4007,7 +4006,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="24.3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="24.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="108"/>
       <c r="B39" s="79">
         <v>6</v>
@@ -4028,7 +4027,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="108"/>
       <c r="B40" s="57">
         <v>7</v>
@@ -4049,7 +4048,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A41" s="108"/>
       <c r="B41" s="79">
         <v>8</v>
@@ -4093,14 +4092,14 @@
     <sheetView workbookViewId="1"/>
     <sheetView workbookViewId="2"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.44140625" customWidth="1"/>
-    <col min="3" max="3" width="40.44140625" customWidth="1"/>
-    <col min="4" max="4" width="24.109375" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" customWidth="1"/>
+    <col min="3" max="3" width="40.42578125" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>255</v>
       </c>
@@ -4114,7 +4113,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4128,7 +4127,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="62">
         <v>2</v>
       </c>
@@ -4142,7 +4141,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4156,7 +4155,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="62">
         <v>4</v>
       </c>
@@ -4170,7 +4169,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4184,7 +4183,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="62">
         <v>6</v>
       </c>
@@ -4198,7 +4197,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4212,7 +4211,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="62">
         <v>8</v>
       </c>
@@ -4226,7 +4225,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4240,7 +4239,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="62">
         <v>10</v>
       </c>
@@ -4254,7 +4253,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4268,7 +4267,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="62">
         <v>12</v>
       </c>
@@ -4297,15 +4296,15 @@
     <sheetView workbookViewId="1"/>
     <sheetView workbookViewId="2"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" customWidth="1"/>
-    <col min="4" max="4" width="38.109375" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>150</v>
       </c>
@@ -4319,7 +4318,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>318</v>
       </c>
@@ -4333,7 +4332,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="62" t="s">
         <v>319</v>
       </c>
@@ -4347,7 +4346,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>320</v>
       </c>
@@ -4361,7 +4360,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="62" t="s">
         <v>321</v>
       </c>
@@ -4375,7 +4374,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>322</v>
       </c>
@@ -4389,7 +4388,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="62" t="s">
         <v>323</v>
       </c>
@@ -4403,7 +4402,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>324</v>
       </c>
@@ -4417,7 +4416,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="62" t="s">
         <v>325</v>
       </c>
@@ -4431,7 +4430,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>326</v>
       </c>
@@ -4445,7 +4444,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="62" t="s">
         <v>327</v>
       </c>
@@ -4459,7 +4458,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>328</v>
       </c>
@@ -4473,7 +4472,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="62" t="s">
         <v>329</v>
       </c>
@@ -4500,15 +4499,15 @@
     <sheetView workbookViewId="1"/>
     <sheetView workbookViewId="2"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" customWidth="1"/>
-    <col min="3" max="18" width="3.6640625" style="11" customWidth="1"/>
-    <col min="19" max="20" width="3.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" customWidth="1"/>
+    <col min="3" max="18" width="3.7109375" style="11" customWidth="1"/>
+    <col min="19" max="20" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="59.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="59.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
       <c r="C1" s="14" t="s">
@@ -4566,8 +4565,8 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" s="109" t="s">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="113" t="s">
         <v>60</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -4610,8 +4609,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="110"/>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="112"/>
       <c r="B3" s="7" t="s">
         <v>55</v>
       </c>
@@ -4636,7 +4635,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="111" t="s">
         <v>57</v>
       </c>
@@ -4672,8 +4671,8 @@
       <c r="S4" s="18"/>
       <c r="T4" s="30"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="110"/>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="112"/>
       <c r="B5" s="7" t="s">
         <v>55</v>
       </c>
@@ -4700,7 +4699,7 @@
       <c r="S5" s="19"/>
       <c r="T5" s="31"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="111" t="s">
         <v>58</v>
       </c>
@@ -4738,8 +4737,8 @@
       <c r="S6" s="18"/>
       <c r="T6" s="30"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="110"/>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="112"/>
       <c r="B7" s="7" t="s">
         <v>55</v>
       </c>
@@ -4764,7 +4763,7 @@
       <c r="S7" s="19"/>
       <c r="T7" s="31"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="111" t="s">
         <v>59</v>
       </c>
@@ -4800,8 +4799,8 @@
       <c r="S8" s="18"/>
       <c r="T8" s="30"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="110"/>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="112"/>
       <c r="B9" s="7" t="s">
         <v>55</v>
       </c>
@@ -4828,8 +4827,8 @@
       <c r="S9" s="19"/>
       <c r="T9" s="31"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="112" t="s">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="109" t="s">
         <v>74</v>
       </c>
       <c r="B10" s="13" t="s">
@@ -4858,8 +4857,8 @@
       <c r="S10" s="18"/>
       <c r="T10" s="30"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" s="113"/>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="110"/>
       <c r="B11" s="7" t="s">
         <v>55</v>
       </c>
@@ -4884,8 +4883,8 @@
       <c r="S11" s="19"/>
       <c r="T11" s="31"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" s="112" t="s">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="109" t="s">
         <v>75</v>
       </c>
       <c r="B12" s="13" t="s">
@@ -4920,8 +4919,8 @@
       <c r="S12" s="18"/>
       <c r="T12" s="30"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="113"/>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="110"/>
       <c r="B13" s="7" t="s">
         <v>55</v>
       </c>
@@ -4946,8 +4945,8 @@
       <c r="S13" s="19"/>
       <c r="T13" s="31"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="112" t="s">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="109" t="s">
         <v>76</v>
       </c>
       <c r="B14" s="13" t="s">
@@ -4978,8 +4977,8 @@
       <c r="S14" s="18"/>
       <c r="T14" s="30"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" s="113"/>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="110"/>
       <c r="B15" s="7" t="s">
         <v>55</v>
       </c>
@@ -5004,8 +5003,8 @@
       <c r="S15" s="19"/>
       <c r="T15" s="31"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="112" t="s">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="109" t="s">
         <v>77</v>
       </c>
       <c r="B16" s="13" t="s">
@@ -5040,8 +5039,8 @@
       <c r="S16" s="18"/>
       <c r="T16" s="30"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A17" s="113"/>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="110"/>
       <c r="B17" s="7" t="s">
         <v>55</v>
       </c>
@@ -5066,7 +5065,7 @@
       <c r="S17" s="19"/>
       <c r="T17" s="31"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="114" t="s">
         <v>78</v>
       </c>
@@ -5098,8 +5097,8 @@
       <c r="S18" s="22"/>
       <c r="T18" s="30"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A19" s="113"/>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="110"/>
       <c r="B19" s="8" t="s">
         <v>55</v>
       </c>
@@ -5124,7 +5123,7 @@
       <c r="S19" s="22"/>
       <c r="T19" s="31"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="111" t="s">
         <v>71</v>
       </c>
@@ -5156,8 +5155,8 @@
       <c r="S20" s="18"/>
       <c r="T20" s="30"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A21" s="110"/>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="112"/>
       <c r="B21" s="7" t="s">
         <v>55</v>
       </c>
@@ -5182,8 +5181,8 @@
       <c r="S21" s="19"/>
       <c r="T21" s="31"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A22" s="112" t="s">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="109" t="s">
         <v>79</v>
       </c>
       <c r="B22" s="13" t="s">
@@ -5218,8 +5217,8 @@
       <c r="S22" s="18"/>
       <c r="T22" s="30"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A23" s="113"/>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="110"/>
       <c r="B23" s="7" t="s">
         <v>55</v>
       </c>
@@ -5244,8 +5243,8 @@
       <c r="S23" s="19"/>
       <c r="T23" s="31"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A24" s="112" t="s">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="109" t="s">
         <v>72</v>
       </c>
       <c r="B24" s="13" t="s">
@@ -5276,8 +5275,8 @@
       <c r="S24" s="18"/>
       <c r="T24" s="30"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A25" s="113"/>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="110"/>
       <c r="B25" s="7" t="s">
         <v>55</v>
       </c>
@@ -5302,7 +5301,7 @@
       <c r="S25" s="19"/>
       <c r="T25" s="31"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="111" t="s">
         <v>73</v>
       </c>
@@ -5338,8 +5337,8 @@
       <c r="S26" s="18"/>
       <c r="T26" s="30"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A27" s="110"/>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="112"/>
       <c r="B27" s="7" t="s">
         <v>55</v>
       </c>
@@ -5364,7 +5363,7 @@
       <c r="S27" s="19"/>
       <c r="T27" s="31"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="111" t="s">
         <v>61</v>
       </c>
@@ -5402,8 +5401,8 @@
       <c r="S28" s="18"/>
       <c r="T28" s="30"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A29" s="110"/>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="112"/>
       <c r="B29" s="7" t="s">
         <v>55</v>
       </c>
@@ -5428,7 +5427,7 @@
       <c r="S29" s="19"/>
       <c r="T29" s="31"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="111" t="s">
         <v>62</v>
       </c>
@@ -5460,8 +5459,8 @@
       <c r="S30" s="18"/>
       <c r="T30" s="30"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A31" s="110"/>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" s="112"/>
       <c r="B31" s="7" t="s">
         <v>55</v>
       </c>
@@ -5486,7 +5485,7 @@
       <c r="S31" s="19"/>
       <c r="T31" s="31"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="111" t="s">
         <v>63</v>
       </c>
@@ -5524,8 +5523,8 @@
       <c r="S32" s="18"/>
       <c r="T32" s="30"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A33" s="110"/>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" s="112"/>
       <c r="B33" s="7" t="s">
         <v>55</v>
       </c>
@@ -5550,7 +5549,7 @@
       <c r="S33" s="19"/>
       <c r="T33" s="31"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="111" t="s">
         <v>64</v>
       </c>
@@ -5586,8 +5585,8 @@
       <c r="S34" s="18"/>
       <c r="T34" s="30"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A35" s="110"/>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35" s="112"/>
       <c r="B35" s="7" t="s">
         <v>55</v>
       </c>
@@ -5612,7 +5611,7 @@
       <c r="S35" s="19"/>
       <c r="T35" s="31"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="111" t="s">
         <v>65</v>
       </c>
@@ -5648,8 +5647,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A37" s="110"/>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37" s="112"/>
       <c r="B37" s="7" t="s">
         <v>55</v>
       </c>
@@ -5674,7 +5673,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="111" t="s">
         <v>54</v>
       </c>
@@ -5712,8 +5711,8 @@
       <c r="S38" s="18"/>
       <c r="T38" s="30"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A39" s="110"/>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A39" s="112"/>
       <c r="B39" s="7" t="s">
         <v>55</v>
       </c>
@@ -5738,7 +5737,7 @@
       <c r="S39" s="19"/>
       <c r="T39" s="31"/>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="111" t="s">
         <v>66</v>
       </c>
@@ -5770,8 +5769,8 @@
       <c r="S40" s="18"/>
       <c r="T40" s="30"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A41" s="110"/>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A41" s="112"/>
       <c r="B41" s="7" t="s">
         <v>55</v>
       </c>
@@ -5798,7 +5797,7 @@
       <c r="S41" s="19"/>
       <c r="T41" s="31"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="111" t="s">
         <v>67</v>
       </c>
@@ -5830,8 +5829,8 @@
       </c>
       <c r="T42" s="30"/>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A43" s="110"/>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A43" s="112"/>
       <c r="B43" s="7" t="s">
         <v>55</v>
       </c>
@@ -5856,7 +5855,7 @@
       </c>
       <c r="T43" s="31"/>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="111" t="s">
         <v>68</v>
       </c>
@@ -5890,8 +5889,8 @@
       <c r="S44" s="18"/>
       <c r="T44" s="30"/>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A45" s="110"/>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A45" s="112"/>
       <c r="B45" s="7" t="s">
         <v>55</v>
       </c>
@@ -5916,7 +5915,7 @@
       <c r="S45" s="19"/>
       <c r="T45" s="31"/>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="111" t="s">
         <v>53</v>
       </c>
@@ -5952,8 +5951,8 @@
       </c>
       <c r="T46" s="40"/>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A47" s="110"/>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A47" s="112"/>
       <c r="B47" s="7" t="s">
         <v>55</v>
       </c>
@@ -5980,7 +5979,7 @@
       </c>
       <c r="T47" s="31"/>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B48" s="32" t="s">
         <v>82</v>
       </c>
@@ -6057,7 +6056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>83</v>
       </c>
@@ -6136,6 +6135,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A44:A45"/>
     <mergeCell ref="A46:A47"/>
@@ -6149,16 +6158,6 @@
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="A40:A41"/>
     <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6173,7 +6172,7 @@
       <selection activeCell="I48" sqref="I48"/>
     </sheetView>
     <sheetView tabSelected="1" workbookViewId="1">
-      <pane xSplit="12552" ySplit="5244" activePane="bottomRight"/>
+      <pane xSplit="12555" ySplit="5250" activePane="bottomRight"/>
       <selection activeCell="U11" sqref="U11"/>
       <selection pane="topRight" activeCell="AC8" sqref="AC8"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
@@ -6181,14 +6180,14 @@
     </sheetView>
     <sheetView workbookViewId="2"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5546875" customWidth="1"/>
-    <col min="2" max="2" width="17.5546875" customWidth="1"/>
-    <col min="3" max="27" width="3.6640625" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="27" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="60.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
       <c r="C1" s="14" t="s">
@@ -6267,7 +6266,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="115" t="s">
         <v>39</v>
       </c>
@@ -6324,7 +6323,7 @@
       <c r="Z2" s="93"/>
       <c r="AA2" s="91"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="115"/>
       <c r="B3" s="37" t="s">
         <v>105</v>
@@ -6373,7 +6372,7 @@
       <c r="Z3" s="100"/>
       <c r="AA3" s="98"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="115"/>
       <c r="B4" s="4" t="s">
         <v>106</v>
@@ -6424,7 +6423,7 @@
       <c r="Z4" s="93"/>
       <c r="AA4" s="91"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="115"/>
       <c r="B5" s="37" t="s">
         <v>107</v>
@@ -6471,7 +6470,7 @@
       <c r="Z5" s="100"/>
       <c r="AA5" s="98"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="115"/>
       <c r="B6" s="4" t="s">
         <v>108</v>
@@ -6510,7 +6509,7 @@
       <c r="Z6" s="93"/>
       <c r="AA6" s="91"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="115"/>
       <c r="B7" s="37" t="s">
         <v>109</v>
@@ -6549,7 +6548,7 @@
       <c r="Z7" s="100"/>
       <c r="AA7" s="98"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="116"/>
       <c r="B8" s="7" t="s">
         <v>110</v>
@@ -6596,7 +6595,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="117" t="s">
         <v>138</v>
       </c>
@@ -6665,7 +6664,7 @@
       <c r="Z9" s="93"/>
       <c r="AA9" s="91"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="115"/>
       <c r="B10" s="37" t="s">
         <v>112</v>
@@ -6724,7 +6723,7 @@
       <c r="Z10" s="100"/>
       <c r="AA10" s="98"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="115"/>
       <c r="B11" s="4" t="s">
         <v>113</v>
@@ -6775,7 +6774,7 @@
       <c r="Z11" s="93"/>
       <c r="AA11" s="91"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="115"/>
       <c r="B12" s="37" t="s">
         <v>114</v>
@@ -6824,7 +6823,7 @@
       <c r="Z12" s="100"/>
       <c r="AA12" s="98"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="115"/>
       <c r="B13" s="4" t="s">
         <v>115</v>
@@ -6869,7 +6868,7 @@
       <c r="Z13" s="93"/>
       <c r="AA13" s="91"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="115"/>
       <c r="B14" s="37" t="s">
         <v>116</v>
@@ -6918,7 +6917,7 @@
       <c r="Z14" s="100"/>
       <c r="AA14" s="98"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="115"/>
       <c r="B15" s="4" t="s">
         <v>117</v>
@@ -6961,7 +6960,7 @@
       <c r="Z15" s="93"/>
       <c r="AA15" s="91"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="115"/>
       <c r="B16" s="37" t="s">
         <v>118</v>
@@ -7008,7 +7007,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="115"/>
       <c r="B17" s="4" t="s">
         <v>119</v>
@@ -7047,7 +7046,7 @@
       <c r="Z17" s="93"/>
       <c r="AA17" s="91"/>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="115"/>
       <c r="B18" s="37" t="s">
         <v>120</v>
@@ -7088,7 +7087,7 @@
       <c r="Z18" s="100"/>
       <c r="AA18" s="98"/>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="115"/>
       <c r="B19" s="4" t="s">
         <v>121</v>
@@ -7127,7 +7126,7 @@
       <c r="Z19" s="93"/>
       <c r="AA19" s="91"/>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="116"/>
       <c r="B20" s="7" t="s">
         <v>122</v>
@@ -7168,7 +7167,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="117" t="s">
         <v>139</v>
       </c>
@@ -7231,7 +7230,7 @@
       </c>
       <c r="AA21" s="91"/>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="115"/>
       <c r="B22" s="37" t="s">
         <v>124</v>
@@ -7288,7 +7287,7 @@
       </c>
       <c r="AA22" s="98"/>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="115"/>
       <c r="B23" s="4" t="s">
         <v>125</v>
@@ -7345,7 +7344,7 @@
       </c>
       <c r="AA23" s="91"/>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="115"/>
       <c r="B24" s="37" t="s">
         <v>126</v>
@@ -7402,7 +7401,7 @@
       </c>
       <c r="AA24" s="98"/>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="115"/>
       <c r="B25" s="4" t="s">
         <v>127</v>
@@ -7455,7 +7454,7 @@
       </c>
       <c r="AA25" s="91"/>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="115"/>
       <c r="B26" s="37" t="s">
         <v>129</v>
@@ -7504,7 +7503,7 @@
       </c>
       <c r="AA26" s="98"/>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="115"/>
       <c r="B27" s="8" t="s">
         <v>141</v>
@@ -7553,7 +7552,7 @@
       </c>
       <c r="AA27" s="91"/>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="115"/>
       <c r="B28" s="37" t="s">
         <v>128</v>
@@ -7602,7 +7601,7 @@
       </c>
       <c r="AA28" s="98"/>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" s="115"/>
       <c r="B29" s="41" t="s">
         <v>131</v>
@@ -7647,7 +7646,7 @@
       </c>
       <c r="AA29" s="91"/>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" s="115"/>
       <c r="B30" s="37" t="s">
         <v>130</v>
@@ -7692,7 +7691,7 @@
       </c>
       <c r="AA30" s="98"/>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" s="115"/>
       <c r="B31" s="41" t="s">
         <v>133</v>
@@ -7737,7 +7736,7 @@
       </c>
       <c r="AA31" s="91"/>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" s="115"/>
       <c r="B32" s="37" t="s">
         <v>132</v>
@@ -7780,7 +7779,7 @@
       </c>
       <c r="AA32" s="98"/>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" s="115"/>
       <c r="B33" s="41" t="s">
         <v>134</v>
@@ -7821,7 +7820,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" s="115"/>
       <c r="B34" s="37" t="s">
         <v>135</v>
@@ -7862,7 +7861,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" s="115"/>
       <c r="B35" s="4" t="s">
         <v>136</v>
@@ -7903,7 +7902,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" s="116"/>
       <c r="B36" s="7" t="s">
         <v>137</v>
@@ -7944,7 +7943,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" s="117" t="s">
         <v>140</v>
       </c>
@@ -7989,7 +7988,7 @@
       <c r="Z37" s="93"/>
       <c r="AA37" s="91"/>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" s="115"/>
       <c r="B38" s="37" t="s">
         <v>62</v>
@@ -8030,7 +8029,7 @@
       <c r="Z38" s="100"/>
       <c r="AA38" s="98"/>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39" s="115"/>
       <c r="B39" s="4" t="s">
         <v>63</v>
@@ -8073,7 +8072,7 @@
       <c r="Z39" s="93"/>
       <c r="AA39" s="91"/>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40" s="115"/>
       <c r="B40" s="37" t="s">
         <v>64</v>
@@ -8116,7 +8115,7 @@
       <c r="Z40" s="100"/>
       <c r="AA40" s="98"/>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41" s="115"/>
       <c r="B41" s="4" t="s">
         <v>65</v>
@@ -8159,7 +8158,7 @@
       <c r="Z41" s="93"/>
       <c r="AA41" s="91"/>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" s="115"/>
       <c r="B42" s="37" t="s">
         <v>54</v>
@@ -8200,7 +8199,7 @@
       <c r="Z42" s="100"/>
       <c r="AA42" s="98"/>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43" s="115"/>
       <c r="B43" s="4" t="s">
         <v>66</v>
@@ -8239,7 +8238,7 @@
       <c r="Z43" s="93"/>
       <c r="AA43" s="91"/>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44" s="115"/>
       <c r="B44" s="37" t="s">
         <v>67</v>
@@ -8284,7 +8283,7 @@
       <c r="Z44" s="100"/>
       <c r="AA44" s="98"/>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" s="115"/>
       <c r="B45" s="4" t="s">
         <v>68</v>
@@ -8327,7 +8326,7 @@
       <c r="Z45" s="93"/>
       <c r="AA45" s="91"/>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46" s="116"/>
       <c r="B46" s="7" t="s">
         <v>53</v>
@@ -8370,7 +8369,7 @@
       <c r="Z46" s="95"/>
       <c r="AA46" s="19"/>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B47" s="32" t="s">
         <v>142</v>
       </c>
@@ -8487,16 +8486,16 @@
     <sheetView workbookViewId="1"/>
     <sheetView workbookViewId="2"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" customWidth="1"/>
-    <col min="4" max="4" width="28.33203125" customWidth="1"/>
-    <col min="5" max="5" width="37.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" customWidth="1"/>
+    <col min="5" max="5" width="37.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
@@ -8513,7 +8512,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -8530,7 +8529,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
         <v>9</v>
       </c>
@@ -8547,7 +8546,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -8564,7 +8563,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
         <v>11</v>
       </c>
@@ -8581,7 +8580,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -8598,7 +8597,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="34" t="s">
         <v>13</v>
       </c>
@@ -8615,7 +8614,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -8632,7 +8631,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
         <v>15</v>
       </c>
@@ -8649,7 +8648,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -8666,7 +8665,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="34" t="s">
         <v>17</v>
       </c>
@@ -8683,7 +8682,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
@@ -8700,7 +8699,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="34" t="s">
         <v>19</v>
       </c>
@@ -8717,7 +8716,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -8734,7 +8733,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="34" t="s">
         <v>21</v>
       </c>
@@ -8766,16 +8765,17 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.88671875" customWidth="1"/>
-    <col min="3" max="3" width="100.21875" customWidth="1"/>
-    <col min="4" max="4" width="100.6640625" customWidth="1"/>
-    <col min="5" max="5" width="91.88671875" customWidth="1"/>
-    <col min="6" max="6" width="106.33203125" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" customWidth="1"/>
+    <col min="3" max="3" width="100.28515625" customWidth="1"/>
+    <col min="4" max="4" width="100.7109375" customWidth="1"/>
+    <col min="5" max="5" width="91.85546875" customWidth="1"/>
+    <col min="6" max="6" width="106.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>417</v>
       </c>
@@ -8783,7 +8783,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>434</v>
       </c>
@@ -8800,7 +8800,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -8820,7 +8820,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -8840,7 +8840,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -8860,7 +8860,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -8880,7 +8880,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>435</v>
       </c>
@@ -8900,7 +8900,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -8920,7 +8920,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>435</v>
       </c>
@@ -8940,7 +8940,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="8"/>
       <c r="C10" t="s">
         <v>401</v>
@@ -8955,7 +8955,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>45</v>
       </c>
@@ -8975,7 +8975,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -8995,7 +8995,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>435</v>
       </c>
@@ -9015,7 +9015,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -9035,7 +9035,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>435</v>
       </c>
@@ -9055,7 +9055,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>44</v>
       </c>
@@ -9075,7 +9075,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B17" s="8"/>
       <c r="C17" t="s">
         <v>408</v>
@@ -9084,7 +9084,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -9098,7 +9098,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>435</v>
       </c>
@@ -9112,7 +9112,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>44</v>
       </c>
@@ -9126,7 +9126,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>46</v>
       </c>
